--- a/crawl_data_x/ex_post.xlsx
+++ b/crawl_data_x/ex_post.xlsx
@@ -14,99 +14,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
-  <si>
-    <t>Post ID</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>953768903480315/?idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=1617826118805979&amp;set=pcb.920171443000647&amp;__cft__[0]=AZWH0Oc-tkeO9i23NVCR0ASWxnTW7rGoZuza-H3_Z16WaZYIz8W63c_JdAsTm2cVnERtCrsAol3WurCUN4D5Cb9sQI8kA2jB-fY8DDtOVZUINN9qjgLumYGw4dyX9AcHfZ_YWhXC9d0Yy_mh7VcE6mJtXJVE0T1SEd6yPXY3mGnEMv1facJS_T5bJTk3JAUsVTf9ob1tEzfCtdrFp3RTFeum&amp;__tn__=*bH-R</t>
-  </si>
-  <si>
-    <t>?fbid=122161421954282461&amp;set=gm.936123088072149&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>1619177335349783/?idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=632310032460160&amp;set=g.811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=632310075793489&amp;set=pcb.938181804532944&amp;__cft__[0]=AZViMIItZYzB3tBgqAfWXPw3SXkbS-eEtIo-NAZZUWeKB_1qZJi2ZA_qQEqPsDv9WjQrjT1nLkC5h6Lx-H8wWB3hlA19UX3wUGjXdIY4O1_aKpVXiDk1sn-Y4QqiXwlvxesGb-bC3rA1Aol1TKXblC0nPNJIzWVEZ-GeyiUepMlOBCxW8mDXFz0S1PdO6s07MVJ-H8cB5qa85Es56w8sv3Ey&amp;__tn__=*bH-R</t>
-  </si>
-  <si>
-    <t>?fbid=122196906338211717&amp;set=gm.936338714717253&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=122161421582282461&amp;set=gm.936121628072295&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=632310032460160&amp;set=pcb.938181804532944&amp;__cft__[0]=AZViMIItZYzB3tBgqAfWXPw3SXkbS-eEtIo-NAZZUWeKB_1qZJi2ZA_qQEqPsDv9WjQrjT1nLkC5h6Lx-H8wWB3hlA19UX3wUGjXdIY4O1_aKpVXiDk1sn-Y4QqiXwlvxesGb-bC3rA1Aol1TKXblC0nPNJIzWVEZ-GeyiUepMlOBCxW8mDXFz0S1PdO6s07MVJ-H8cB5qa85Es56w8sv3Ey&amp;__tn__=*bH-R</t>
-  </si>
-  <si>
-    <t>?fbid=1617826078805983&amp;set=pcb.920171443000647&amp;__cft__[0]=AZWH0Oc-tkeO9i23NVCR0ASWxnTW7rGoZuza-H3_Z16WaZYIz8W63c_JdAsTm2cVnERtCrsAol3WurCUN4D5Cb9sQI8kA2jB-fY8DDtOVZUINN9qjgLumYGw4dyX9AcHfZ_YWhXC9d0Yy_mh7VcE6mJtXJVE0T1SEd6yPXY3mGnEMv1facJS_T5bJTk3JAUsVTf9ob1tEzfCtdrFp3RTFeum&amp;__tn__=*bH-R</t>
-  </si>
-  <si>
-    <t>?fbid=122197114016211717&amp;set=gm.936944337990024&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=926781906098718&amp;set=gm.935011148183343&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=122132316860498461&amp;set=gm.932686161749175&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=927386939371548&amp;set=gm.935561248128333&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=632310112460152&amp;set=pcb.938181804532944&amp;__cft__[0]=AZViMIItZYzB3tBgqAfWXPw3SXkbS-eEtIo-NAZZUWeKB_1qZJi2ZA_qQEqPsDv9WjQrjT1nLkC5h6Lx-H8wWB3hlA19UX3wUGjXdIY4O1_aKpVXiDk1sn-Y4QqiXwlvxesGb-bC3rA1Aol1TKXblC0nPNJIzWVEZ-GeyiUepMlOBCxW8mDXFz0S1PdO6s07MVJ-H8cB5qa85Es56w8sv3Ey&amp;__tn__=*bH-R</t>
-  </si>
-  <si>
-    <t>?fbid=532166123079873&amp;set=gm.899560911728367&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=519243741127103&amp;set=gm.936829641334827&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>508870288169777/?__cft__[0]=AZXlr-aWU1yjRqNI2A5WsqqHLFbJTxcxAVnpdrJ0s9iZhynwy2nLYEQxTaO76I0HMmKpUsMhoJqU7SERXQ9DQ_iBVkPL0307X6Trod7lg8RF0Rnu2CrDBJwocQG10XIe7vyUJ-N8TTFdb20HM7bdKNHTcesQXCpyW3S7Xz8U3OQsTzal9dGYFgdWx8Se8GyKmVSWeY-K9crRxUCasaE4tN4mECbpRET0rldxXEjEmm86wg&amp;__tn__=%2B%3FFH-y-R</t>
-  </si>
-  <si>
-    <t>1318747156208084/?idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=571525228952692&amp;set=gm.935657591452032&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=907550657804449&amp;set=gm.934847748199683&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=632310075793489&amp;set=g.811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=576717238433491&amp;set=g.811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=122099049674336077&amp;set=p.122099049674336077</t>
-  </si>
-  <si>
-    <t>?fbid=598272816476594&amp;set=gm.935425478141910&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=2404287136590537&amp;set=gm.869954128022379&amp;idorvanity=811896080494851</t>
-  </si>
-  <si>
-    <t>?fbid=632310112460152&amp;set=g.811896080494851</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>photo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>post_user</t>
+  </si>
+  <si>
+    <t>post_content</t>
+  </si>
+  <si>
+    <t>938181804532944</t>
+  </si>
+  <si>
+    <t>897453348605790</t>
+  </si>
+  <si>
+    <t>869954128022379</t>
+  </si>
+  <si>
+    <t>936338164717308</t>
+  </si>
+  <si>
+    <t>936829641334827</t>
+  </si>
+  <si>
+    <t>934317134919411</t>
+  </si>
+  <si>
+    <t>932686161749175</t>
+  </si>
+  <si>
+    <t>936338714717253</t>
+  </si>
+  <si>
+    <t>940359197648538</t>
+  </si>
+  <si>
+    <t>936654001352391</t>
+  </si>
+  <si>
+    <t>935657591452032</t>
+  </si>
+  <si>
+    <t>935561248128333</t>
+  </si>
+  <si>
+    <t>Vuong Viet</t>
+  </si>
+  <si>
+    <t>ĐẹpTrai BịHói</t>
+  </si>
+  <si>
+    <t>Tiến Trần</t>
+  </si>
+  <si>
+    <t>Ân Thiên</t>
+  </si>
+  <si>
+    <t>Ericnatalianoirmuntiz Rogervansclous Tobias</t>
+  </si>
+  <si>
+    <t>Lộc Thảo Hương</t>
+  </si>
+  <si>
+    <t>Chill Chill Chút Đi</t>
+  </si>
+  <si>
+    <t>Phúc Nguyễn</t>
+  </si>
+  <si>
+    <t>Thư Phạm</t>
+  </si>
+  <si>
+    <t>Lê Doãn Tiến</t>
+  </si>
+  <si>
+    <t>Châu Tấn Phước</t>
+  </si>
+  <si>
+    <t>Gia Tuan Trinh</t>
+  </si>
+  <si>
+    <t>Comeback Huy</t>
+  </si>
+  <si>
+    <t>Tuấn Minh</t>
+  </si>
+  <si>
+    <t>Khải Khải</t>
+  </si>
+  <si>
+    <t>Trần Nghĩa</t>
+  </si>
+  <si>
+    <t>Có hàng của otp, tôi xin bú</t>
+  </si>
+  <si>
+    <t>Tanaka với Marcoh</t>
+  </si>
+  <si>
+    <t>Xe lăn vê lóc</t>
+  </si>
+  <si>
+    <t>Chx bao h thấy cặp này real như v :))</t>
+  </si>
+  <si>
+    <t>Art xinh quá có ai bt cre tác giả k ạ</t>
+  </si>
+  <si>
+    <t>Để tránh vụ one shot là nằm đó bác, nó sẽ cho bác còn 1 máu để sống tiếp</t>
+  </si>
+  <si>
+    <t>Chỉ cần 1 tk nợ nần và 1 thanh kiếm jack đc canh bởi con ma</t>
+  </si>
+  <si>
+    <t>Có thì húp thôi chứ lỗi j</t>
+  </si>
+  <si>
+    <t>Bên t ko có tính năng đó</t>
+  </si>
+  <si>
+    <t>chắc lia vào femboy, nhưng mà đuma t vẫn không tin được marina là nam :)))))</t>
+  </si>
+  <si>
+    <t>Vào bà hai</t>
+  </si>
+  <si>
+    <t>Xe lăn thần tốc nghe buồn cười nên thả</t>
+  </si>
+  <si>
+    <t>Butter Pom Dogo toàn mari</t>
+  </si>
+  <si>
+    <t>Nào ko trêu bạn</t>
+  </si>
+  <si>
+    <t>*Ragnvaldr đã gửi lời mời kết bạn</t>
+  </si>
+  <si>
+    <t>Nhà sản xuất game confirm Marina là trans r mà ông</t>
+  </si>
+  <si>
+    <t>Có 9 cuộn trống chả nhẽ lại ko lấy sách save game:))</t>
   </si>
 </sst>
 </file>
@@ -464,234 +515,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
+      <c r="C18" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/crawl_data_x/ex_post.xlsx
+++ b/crawl_data_x/ex_post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>post_id</t>
   </si>
@@ -25,139 +25,136 @@
     <t>post_content</t>
   </si>
   <si>
+    <t>942091490808642</t>
+  </si>
+  <si>
+    <t>940359197648538</t>
+  </si>
+  <si>
+    <t>935561248128333</t>
+  </si>
+  <si>
+    <t>936338164717308</t>
+  </si>
+  <si>
+    <t>934317134919411</t>
+  </si>
+  <si>
+    <t>941902074160917</t>
+  </si>
+  <si>
+    <t>936654001352391</t>
+  </si>
+  <si>
     <t>938181804532944</t>
   </si>
   <si>
-    <t>897453348605790</t>
+    <t>936338714717253</t>
+  </si>
+  <si>
+    <t>932686161749175</t>
   </si>
   <si>
     <t>869954128022379</t>
   </si>
   <si>
-    <t>936338164717308</t>
-  </si>
-  <si>
-    <t>936829641334827</t>
-  </si>
-  <si>
-    <t>934317134919411</t>
-  </si>
-  <si>
-    <t>932686161749175</t>
-  </si>
-  <si>
-    <t>936338714717253</t>
-  </si>
-  <si>
-    <t>940359197648538</t>
-  </si>
-  <si>
-    <t>936654001352391</t>
-  </si>
-  <si>
-    <t>935657591452032</t>
-  </si>
-  <si>
-    <t>935561248128333</t>
+    <t>935011148183343</t>
+  </si>
+  <si>
+    <t>Châu Tấn Phước</t>
+  </si>
+  <si>
+    <t>Comeback Huy</t>
+  </si>
+  <si>
+    <t>Trần Nghĩa</t>
+  </si>
+  <si>
+    <t>Ericnatalianoirmuntiz Rogervansclous Tobias</t>
+  </si>
+  <si>
+    <t>Thư Phạm</t>
+  </si>
+  <si>
+    <t>Ân Thiên</t>
+  </si>
+  <si>
+    <t>Lê Doãn Tiến</t>
+  </si>
+  <si>
+    <t>Giọt Nước Tràn Ly</t>
   </si>
   <si>
     <t>Vuong Viet</t>
   </si>
   <si>
-    <t>ĐẹpTrai BịHói</t>
+    <t>Chill Chill Chút Đi</t>
+  </si>
+  <si>
+    <t>Gia Tuan Trinh</t>
+  </si>
+  <si>
+    <t>Ngờ Uyên Nguyên</t>
+  </si>
+  <si>
+    <t>Phúc Nguyễn</t>
   </si>
   <si>
     <t>Tiến Trần</t>
   </si>
   <si>
-    <t>Ân Thiên</t>
-  </si>
-  <si>
-    <t>Ericnatalianoirmuntiz Rogervansclous Tobias</t>
-  </si>
-  <si>
-    <t>Lộc Thảo Hương</t>
-  </si>
-  <si>
-    <t>Chill Chill Chút Đi</t>
-  </si>
-  <si>
-    <t>Phúc Nguyễn</t>
-  </si>
-  <si>
-    <t>Thư Phạm</t>
-  </si>
-  <si>
-    <t>Lê Doãn Tiến</t>
-  </si>
-  <si>
-    <t>Châu Tấn Phước</t>
-  </si>
-  <si>
-    <t>Gia Tuan Trinh</t>
-  </si>
-  <si>
-    <t>Comeback Huy</t>
-  </si>
-  <si>
-    <t>Tuấn Minh</t>
-  </si>
-  <si>
-    <t>Khải Khải</t>
-  </si>
-  <si>
-    <t>Trần Nghĩa</t>
+    <t>Nhớ có ai đó từng build Levi không nghiện lúc đầu game và đổi sang chơi hệ phép như hắc cẩu và triệu hồn cũng mạnh lắm</t>
+  </si>
+  <si>
+    <t>Butter Pom Dogo toàn mari</t>
+  </si>
+  <si>
+    <t>Có 9 cuộn trống chả nhẽ lại ko lấy sách save game:))</t>
+  </si>
+  <si>
+    <t>Art xinh quá có ai bt cre tác giả k ạ</t>
+  </si>
+  <si>
+    <t>Bên t ko có tính năng đó</t>
+  </si>
+  <si>
+    <t>T chúc sn Olivia muộn quá mà tiện chúc sn luôn Reila</t>
+  </si>
+  <si>
+    <t>Nào ko trêu bạn</t>
+  </si>
+  <si>
+    <t>Chx bao h thấy cặp này real như v :))</t>
+  </si>
+  <si>
+    <t>Vào bà hai</t>
+  </si>
+  <si>
+    <t>chắc lia vào femboy, nhưng mà đuma t vẫn không tin được marina là nam :)))))</t>
+  </si>
+  <si>
+    <t>Nhà sản xuất game confirm Marina là trans r mà ông</t>
   </si>
   <si>
     <t>Có hàng của otp, tôi xin bú</t>
   </si>
   <si>
-    <t>Tanaka với Marcoh</t>
+    <t>Chỉ cần 1 tk nợ nần và 1 thanh kiếm jack đc canh bởi con ma</t>
+  </si>
+  <si>
+    <t>Xe lăn thần tốc nghe buồn cười nên thả</t>
+  </si>
+  <si>
+    <t>Nào ko trêu con tui</t>
+  </si>
+  <si>
+    <t>"Nếu chơi Termina mà chưa đánh Heartless one lần nào tức là chả biết cái mie gì về Termina cả"</t>
+  </si>
+  <si>
+    <t>Có thì húp thôi chứ lỗi j</t>
   </si>
   <si>
     <t>Xe lăn vê lóc</t>
-  </si>
-  <si>
-    <t>Chx bao h thấy cặp này real như v :))</t>
-  </si>
-  <si>
-    <t>Art xinh quá có ai bt cre tác giả k ạ</t>
-  </si>
-  <si>
-    <t>Để tránh vụ one shot là nằm đó bác, nó sẽ cho bác còn 1 máu để sống tiếp</t>
-  </si>
-  <si>
-    <t>Chỉ cần 1 tk nợ nần và 1 thanh kiếm jack đc canh bởi con ma</t>
-  </si>
-  <si>
-    <t>Có thì húp thôi chứ lỗi j</t>
-  </si>
-  <si>
-    <t>Bên t ko có tính năng đó</t>
-  </si>
-  <si>
-    <t>chắc lia vào femboy, nhưng mà đuma t vẫn không tin được marina là nam :)))))</t>
-  </si>
-  <si>
-    <t>Vào bà hai</t>
-  </si>
-  <si>
-    <t>Xe lăn thần tốc nghe buồn cười nên thả</t>
-  </si>
-  <si>
-    <t>Butter Pom Dogo toàn mari</t>
-  </si>
-  <si>
-    <t>Nào ko trêu bạn</t>
-  </si>
-  <si>
-    <t>*Ragnvaldr đã gửi lời mời kết bạn</t>
-  </si>
-  <si>
-    <t>Nhà sản xuất game confirm Marina là trans r mà ông</t>
-  </si>
-  <si>
-    <t>Có 9 cuộn trống chả nhẽ lại ko lấy sách save game:))</t>
   </si>
 </sst>
 </file>
@@ -515,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +537,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -551,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,161 +559,172 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/crawl_data_x/ex_post.xlsx
+++ b/crawl_data_x/ex_post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>post_id</t>
   </si>
@@ -25,133 +25,244 @@
     <t>post_content</t>
   </si>
   <si>
+    <t>932686161749175</t>
+  </si>
+  <si>
+    <t>938181804532944</t>
+  </si>
+  <si>
+    <t>917229586628166</t>
+  </si>
+  <si>
+    <t>936338714717253</t>
+  </si>
+  <si>
+    <t>897453348605790</t>
+  </si>
+  <si>
+    <t>935061558178302</t>
+  </si>
+  <si>
+    <t>934991131518678</t>
+  </si>
+  <si>
+    <t>934847748199683</t>
+  </si>
+  <si>
+    <t>865322978485494</t>
+  </si>
+  <si>
     <t>942091490808642</t>
   </si>
   <si>
+    <t>936338164717308</t>
+  </si>
+  <si>
+    <t>941902074160917</t>
+  </si>
+  <si>
+    <t>934317134919411</t>
+  </si>
+  <si>
+    <t>935657591452032</t>
+  </si>
+  <si>
+    <t>920171443000647</t>
+  </si>
+  <si>
+    <t>936654001352391</t>
+  </si>
+  <si>
+    <t>869954128022379</t>
+  </si>
+  <si>
+    <t>936829641334827</t>
+  </si>
+  <si>
+    <t>941271837557274</t>
+  </si>
+  <si>
+    <t>942567137427744</t>
+  </si>
+  <si>
+    <t>935011148183343</t>
+  </si>
+  <si>
     <t>940359197648538</t>
   </si>
   <si>
-    <t>935561248128333</t>
-  </si>
-  <si>
-    <t>936338164717308</t>
-  </si>
-  <si>
-    <t>934317134919411</t>
-  </si>
-  <si>
-    <t>941902074160917</t>
-  </si>
-  <si>
-    <t>936654001352391</t>
-  </si>
-  <si>
-    <t>938181804532944</t>
-  </si>
-  <si>
-    <t>936338714717253</t>
-  </si>
-  <si>
-    <t>932686161749175</t>
-  </si>
-  <si>
-    <t>869954128022379</t>
-  </si>
-  <si>
-    <t>935011148183343</t>
+    <t>Lê Doãn Tiến</t>
+  </si>
+  <si>
+    <t>Ân Thiên</t>
   </si>
   <si>
     <t>Châu Tấn Phước</t>
   </si>
   <si>
+    <t>ĐẹpTrai BịHói</t>
+  </si>
+  <si>
+    <t>Sơn Lê</t>
+  </si>
+  <si>
+    <t>Hoang Hieu Nguyen</t>
+  </si>
+  <si>
+    <t>Vuong Viet</t>
+  </si>
+  <si>
+    <t>Ngọc Thịnh Thái Trukng</t>
+  </si>
+  <si>
+    <t>Thư Phạm</t>
+  </si>
+  <si>
+    <t>Chill Chill Chút Đi</t>
+  </si>
+  <si>
+    <t>Giọt Nước Tràn Ly</t>
+  </si>
+  <si>
+    <t>Tuấn Minh</t>
+  </si>
+  <si>
+    <t>Phúc Nguyễn</t>
+  </si>
+  <si>
+    <t>Kamo Aki</t>
+  </si>
+  <si>
+    <t>Thịnh Đinh</t>
+  </si>
+  <si>
+    <t>Gia Tuan Trinh</t>
+  </si>
+  <si>
+    <t>Lộc Thảo Hương</t>
+  </si>
+  <si>
+    <t>Chồng Jamil</t>
+  </si>
+  <si>
+    <t>Ngờ Uyên Nguyên</t>
+  </si>
+  <si>
+    <t>Ericnatalianoirmuntiz Rogervansclous Tobias</t>
+  </si>
+  <si>
+    <t>Nguyễn Châu</t>
+  </si>
+  <si>
+    <t>Hoangg Anh</t>
+  </si>
+  <si>
     <t>Comeback Huy</t>
   </si>
   <si>
-    <t>Trần Nghĩa</t>
-  </si>
-  <si>
-    <t>Ericnatalianoirmuntiz Rogervansclous Tobias</t>
-  </si>
-  <si>
-    <t>Thư Phạm</t>
-  </si>
-  <si>
-    <t>Ân Thiên</t>
-  </si>
-  <si>
-    <t>Lê Doãn Tiến</t>
-  </si>
-  <si>
-    <t>Giọt Nước Tràn Ly</t>
-  </si>
-  <si>
-    <t>Vuong Viet</t>
-  </si>
-  <si>
-    <t>Chill Chill Chút Đi</t>
-  </si>
-  <si>
-    <t>Gia Tuan Trinh</t>
-  </si>
-  <si>
-    <t>Ngờ Uyên Nguyên</t>
-  </si>
-  <si>
-    <t>Phúc Nguyễn</t>
+    <t>Nguyễn Công Trường</t>
   </si>
   <si>
     <t>Tiến Trần</t>
   </si>
   <si>
+    <t>chắc lia vào femboy, nhưng mà đuma t vẫn không tin được marina là nam :)))))</t>
+  </si>
+  <si>
+    <t>Chx bao h thấy cặp này real như v :))</t>
+  </si>
+  <si>
+    <t>Chắc là của marina</t>
+  </si>
+  <si>
+    <t>Vào bà hai</t>
+  </si>
+  <si>
+    <t>Tanaka với Marcoh</t>
+  </si>
+  <si>
+    <t>Lên wiki đi</t>
+  </si>
+  <si>
+    <t>Mồm Mai toàn xương dịch của tôi</t>
+  </si>
+  <si>
+    <t>All hail kaiser</t>
+  </si>
+  <si>
+    <t>Farm quái tới mức mà tụi nó vào truyền thuyết là hiểu</t>
+  </si>
+  <si>
+    <t>Nào ko trêu con tui</t>
+  </si>
+  <si>
+    <t>Chỉ cần 1 tk nợ nần và 1 thanh kiếm jack đc canh bởi con ma</t>
+  </si>
+  <si>
+    <t>T chúc sn Olivia muộn quá mà tiện chúc sn luôn Reila</t>
+  </si>
+  <si>
+    <t>Bên t ko có tính năng đó</t>
+  </si>
+  <si>
+    <t>Nhà sản xuất game confirm Marina là trans r mà ông</t>
+  </si>
+  <si>
+    <t>*Ragnvaldr đã gửi lời mời kết bạn</t>
+  </si>
+  <si>
+    <t>Có thì húp thôi chứ lỗi j</t>
+  </si>
+  <si>
+    <t>Top contributor</t>
+  </si>
+  <si>
+    <t>Chưa thực hiện nghi thức thăng hoa mà sao thành thần riu</t>
+  </si>
+  <si>
+    <t>Nào ko trêu bạn</t>
+  </si>
+  <si>
+    <t>Xe lăn thần tốc nghe buồn cười nên thả</t>
+  </si>
+  <si>
     <t>Nhớ có ai đó từng build Levi không nghiện lúc đầu game và đổi sang chơi hệ phép như hắc cẩu và triệu hồn cũng mạnh lắm</t>
   </si>
   <si>
+    <t>Để tránh vụ one shot là nằm đó bác, nó sẽ cho bác còn 1 máu để sống tiếp</t>
+  </si>
+  <si>
+    <t>Chú ơi, đừng ngầu nữa...</t>
+  </si>
+  <si>
+    <t>ĐỈNH QUÁ</t>
+  </si>
+  <si>
+    <t>"Nếu chơi Termina mà chưa đánh Heartless one lần nào tức là chả biết cái mie gì về Termina cả"</t>
+  </si>
+  <si>
+    <t>Art xinh quá có ai bt cre tác giả k ạ</t>
+  </si>
+  <si>
+    <t>dù abella, karin hay marcoh có thoát khỏi đó nhma họ vẫn rất lo sợ vì những gì họ biết, đỡ hơn levi thôi chứ abella thì tìm cách lên mặt trăng còn marcoh ám ảnh với việc phải đấm được thần</t>
+  </si>
+  <si>
+    <t>nhỏ này nó phiền ác</t>
+  </si>
+  <si>
+    <t>Bên thành phố cổ bán 20 đồng 1 cái mà, gom đi ông</t>
+  </si>
+  <si>
+    <t>Sang phần 2 thì kiêm luôn họa sĩ</t>
+  </si>
+  <si>
     <t>Butter Pom Dogo toàn mari</t>
   </si>
   <si>
-    <t>Có 9 cuộn trống chả nhẽ lại ko lấy sách save game:))</t>
-  </si>
-  <si>
-    <t>Art xinh quá có ai bt cre tác giả k ạ</t>
-  </si>
-  <si>
-    <t>Bên t ko có tính năng đó</t>
-  </si>
-  <si>
-    <t>T chúc sn Olivia muộn quá mà tiện chúc sn luôn Reila</t>
-  </si>
-  <si>
-    <t>Nào ko trêu bạn</t>
-  </si>
-  <si>
-    <t>Chx bao h thấy cặp này real như v :))</t>
-  </si>
-  <si>
-    <t>Vào bà hai</t>
-  </si>
-  <si>
-    <t>chắc lia vào femboy, nhưng mà đuma t vẫn không tin được marina là nam :)))))</t>
-  </si>
-  <si>
-    <t>Nhà sản xuất game confirm Marina là trans r mà ông</t>
+    <t>Bộ bị Mai cắm sừng hay gì mà trả thù kì vậy</t>
   </si>
   <si>
     <t>Có hàng của otp, tôi xin bú</t>
-  </si>
-  <si>
-    <t>Chỉ cần 1 tk nợ nần và 1 thanh kiếm jack đc canh bởi con ma</t>
-  </si>
-  <si>
-    <t>Xe lăn thần tốc nghe buồn cười nên thả</t>
-  </si>
-  <si>
-    <t>Nào ko trêu con tui</t>
-  </si>
-  <si>
-    <t>"Nếu chơi Termina mà chưa đánh Heartless one lần nào tức là chả biết cái mie gì về Termina cả"</t>
-  </si>
-  <si>
-    <t>Có thì húp thôi chứ lỗi j</t>
   </si>
   <si>
     <t>Xe lăn vê lóc</t>
@@ -512,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -556,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -567,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,10 +722,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -622,10 +733,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -633,98 +744,274 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/crawl_data_x/ex_post.xlsx
+++ b/crawl_data_x/ex_post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="690">
   <si>
     <t>post_id</t>
   </si>
@@ -25,247 +25,2065 @@
     <t>post_content</t>
   </si>
   <si>
+    <t>917229586628166</t>
+  </si>
+  <si>
+    <t>852608503090275</t>
+  </si>
+  <si>
+    <t>919042973113494</t>
+  </si>
+  <si>
+    <t>851215433229582</t>
+  </si>
+  <si>
+    <t>843559330661859</t>
+  </si>
+  <si>
+    <t>841910927493366</t>
+  </si>
+  <si>
+    <t>844418287242630</t>
+  </si>
+  <si>
+    <t>918845823133209</t>
+  </si>
+  <si>
+    <t>864728868544905</t>
+  </si>
+  <si>
+    <t>926837249000733</t>
+  </si>
+  <si>
+    <t>921109942906797</t>
+  </si>
+  <si>
+    <t>871412791209846</t>
+  </si>
+  <si>
+    <t>919085023109289</t>
+  </si>
+  <si>
+    <t>864612731889852</t>
+  </si>
+  <si>
+    <t>859044912446634</t>
+  </si>
+  <si>
+    <t>919047403113051</t>
+  </si>
+  <si>
+    <t>824537295897396</t>
+  </si>
+  <si>
+    <t>938181804532944</t>
+  </si>
+  <si>
+    <t>936654001352391</t>
+  </si>
+  <si>
+    <t>830906828593776</t>
+  </si>
+  <si>
+    <t>833352081682584</t>
+  </si>
+  <si>
+    <t>914277100256748</t>
+  </si>
+  <si>
+    <t>917262639958194</t>
+  </si>
+  <si>
+    <t>933840188300439</t>
+  </si>
+  <si>
+    <t>940359197648538</t>
+  </si>
+  <si>
+    <t>915819393435852</t>
+  </si>
+  <si>
+    <t>839552414395884</t>
+  </si>
+  <si>
+    <t>852046943146431</t>
+  </si>
+  <si>
+    <t>882821353402323</t>
+  </si>
+  <si>
+    <t>856562922694833</t>
+  </si>
+  <si>
+    <t>917273463290445</t>
+  </si>
+  <si>
+    <t>928987725452352</t>
+  </si>
+  <si>
+    <t>858575905826868</t>
+  </si>
+  <si>
+    <t>850581759959616</t>
+  </si>
+  <si>
+    <t>830359281981864</t>
+  </si>
+  <si>
+    <t>828356408848818</t>
+  </si>
+  <si>
+    <t>860853412265784</t>
+  </si>
+  <si>
+    <t>918396999844758</t>
+  </si>
+  <si>
+    <t>934847748199683</t>
+  </si>
+  <si>
+    <t>933739764977148</t>
+  </si>
+  <si>
+    <t>921621106189014</t>
+  </si>
+  <si>
+    <t>919491706401954</t>
+  </si>
+  <si>
+    <t>868709521480173</t>
+  </si>
+  <si>
+    <t>835706801447112</t>
+  </si>
+  <si>
+    <t>847865886897870</t>
+  </si>
+  <si>
+    <t>900958178255307</t>
+  </si>
+  <si>
+    <t>922156519468806</t>
+  </si>
+  <si>
+    <t>927037175647407</t>
+  </si>
+  <si>
+    <t>848573573493768</t>
+  </si>
+  <si>
+    <t>934317134919411</t>
+  </si>
+  <si>
+    <t>838416204509505</t>
+  </si>
+  <si>
+    <t>841279960889796</t>
+  </si>
+  <si>
+    <t>832838465067279</t>
+  </si>
+  <si>
+    <t>933212708363187</t>
+  </si>
+  <si>
+    <t>942091490808642</t>
+  </si>
+  <si>
+    <t>920171443000647</t>
+  </si>
+  <si>
+    <t>843336367350822</t>
+  </si>
+  <si>
+    <t>846560627028396</t>
+  </si>
+  <si>
+    <t>933541011663690</t>
+  </si>
+  <si>
+    <t>830359288648530</t>
+  </si>
+  <si>
     <t>932686161749175</t>
   </si>
   <si>
-    <t>938181804532944</t>
-  </si>
-  <si>
-    <t>917229586628166</t>
+    <t>931306165220508</t>
+  </si>
+  <si>
+    <t>905432534474538</t>
+  </si>
+  <si>
+    <t>858199762531149</t>
+  </si>
+  <si>
+    <t>859102109107581</t>
+  </si>
+  <si>
+    <t>896150902069368</t>
+  </si>
+  <si>
+    <t>865322978485494</t>
+  </si>
+  <si>
+    <t>901309078220217</t>
+  </si>
+  <si>
+    <t>925811529103305</t>
+  </si>
+  <si>
+    <t>859041969113595</t>
+  </si>
+  <si>
+    <t>924082702609521</t>
+  </si>
+  <si>
+    <t>922236089460849</t>
+  </si>
+  <si>
+    <t>874748174209641</t>
+  </si>
+  <si>
+    <t>899923325025459</t>
+  </si>
+  <si>
+    <t>917229329961525</t>
+  </si>
+  <si>
+    <t>894813355536456</t>
+  </si>
+  <si>
+    <t>856985189319273</t>
+  </si>
+  <si>
+    <t>919179183099873</t>
+  </si>
+  <si>
+    <t>910857183932073</t>
+  </si>
+  <si>
+    <t>935011148183343</t>
+  </si>
+  <si>
+    <t>918529996498125</t>
+  </si>
+  <si>
+    <t>892121309138994</t>
+  </si>
+  <si>
+    <t>866928934991565</t>
+  </si>
+  <si>
+    <t>884525793231879</t>
+  </si>
+  <si>
+    <t>834179231599869</t>
+  </si>
+  <si>
+    <t>836814764669649</t>
+  </si>
+  <si>
+    <t>932630361754755</t>
+  </si>
+  <si>
+    <t>833995418284917</t>
+  </si>
+  <si>
+    <t>942903207394137</t>
+  </si>
+  <si>
+    <t>931339255217199</t>
+  </si>
+  <si>
+    <t>914870753530716</t>
+  </si>
+  <si>
+    <t>931082311909560</t>
+  </si>
+  <si>
+    <t>921623922855399</t>
+  </si>
+  <si>
+    <t>936338164717308</t>
+  </si>
+  <si>
+    <t>941902074160917</t>
+  </si>
+  <si>
+    <t>918889536462171</t>
+  </si>
+  <si>
+    <t>883154243369034</t>
+  </si>
+  <si>
+    <t>866335695050889</t>
+  </si>
+  <si>
+    <t>917913306559794</t>
+  </si>
+  <si>
+    <t>894679072216551</t>
+  </si>
+  <si>
+    <t>922818606069264</t>
+  </si>
+  <si>
+    <t>868711391479986</t>
+  </si>
+  <si>
+    <t>845189030498889</t>
+  </si>
+  <si>
+    <t>916256740058784</t>
+  </si>
+  <si>
+    <t>922228822794909</t>
+  </si>
+  <si>
+    <t>860872668930525</t>
+  </si>
+  <si>
+    <t>812140603803732</t>
+  </si>
+  <si>
+    <t>865289525155506</t>
+  </si>
+  <si>
+    <t>916665970017861</t>
+  </si>
+  <si>
+    <t>866885331662592</t>
+  </si>
+  <si>
+    <t>857975079220284</t>
+  </si>
+  <si>
+    <t>851238723227253</t>
+  </si>
+  <si>
+    <t>917067123311079</t>
+  </si>
+  <si>
+    <t>923295879354870</t>
+  </si>
+  <si>
+    <t>931997115151413</t>
+  </si>
+  <si>
+    <t>912350337116091</t>
+  </si>
+  <si>
+    <t>864563125228146</t>
+  </si>
+  <si>
+    <t>829137895437336</t>
+  </si>
+  <si>
+    <t>935061558178302</t>
+  </si>
+  <si>
+    <t>935657591452032</t>
+  </si>
+  <si>
+    <t>834230024928123</t>
+  </si>
+  <si>
+    <t>871502927867499</t>
+  </si>
+  <si>
+    <t>902948798056245</t>
+  </si>
+  <si>
+    <t>898283845189407</t>
+  </si>
+  <si>
+    <t>870533457964446</t>
+  </si>
+  <si>
+    <t>867524131598712</t>
+  </si>
+  <si>
+    <t>919126883105103</t>
+  </si>
+  <si>
+    <t>892137412470717</t>
+  </si>
+  <si>
+    <t>862620118755780</t>
+  </si>
+  <si>
+    <t>927172342300557</t>
+  </si>
+  <si>
+    <t>918314146519710</t>
+  </si>
+  <si>
+    <t>910349563982835</t>
+  </si>
+  <si>
+    <t>942567137427744</t>
+  </si>
+  <si>
+    <t>930654351952356</t>
+  </si>
+  <si>
+    <t>929330018751456</t>
+  </si>
+  <si>
+    <t>927545995596525</t>
+  </si>
+  <si>
+    <t>922209209463537</t>
+  </si>
+  <si>
+    <t>849752936709165</t>
+  </si>
+  <si>
+    <t>855933519424440</t>
+  </si>
+  <si>
+    <t>838396927844766</t>
+  </si>
+  <si>
+    <t>894678682216590</t>
+  </si>
+  <si>
+    <t>901299821554476</t>
+  </si>
+  <si>
+    <t>902555991428859</t>
+  </si>
+  <si>
+    <t>877737717244020</t>
+  </si>
+  <si>
+    <t>867986574885801</t>
+  </si>
+  <si>
+    <t>851122283238897</t>
+  </si>
+  <si>
+    <t>835009344850191</t>
+  </si>
+  <si>
+    <t>844950157189443</t>
+  </si>
+  <si>
+    <t>872821751068950</t>
+  </si>
+  <si>
+    <t>918530346498090</t>
+  </si>
+  <si>
+    <t>900795681604890</t>
+  </si>
+  <si>
+    <t>922129902804801</t>
+  </si>
+  <si>
+    <t>844334317251027</t>
+  </si>
+  <si>
+    <t>832204758463983</t>
+  </si>
+  <si>
+    <t>850129473338178</t>
+  </si>
+  <si>
+    <t>918372936513831</t>
+  </si>
+  <si>
+    <t>902600531424405</t>
+  </si>
+  <si>
+    <t>869758794708579</t>
+  </si>
+  <si>
+    <t>935561248128333</t>
+  </si>
+  <si>
+    <t>859419332409192</t>
+  </si>
+  <si>
+    <t>846405530377239</t>
+  </si>
+  <si>
+    <t>941271837557274</t>
+  </si>
+  <si>
+    <t>924112565939868</t>
+  </si>
+  <si>
+    <t>841652040852588</t>
+  </si>
+  <si>
+    <t>930473468637111</t>
+  </si>
+  <si>
+    <t>897453348605790</t>
+  </si>
+  <si>
+    <t>851633216521137</t>
+  </si>
+  <si>
+    <t>927777812240010</t>
+  </si>
+  <si>
+    <t>850260573325068</t>
+  </si>
+  <si>
+    <t>869954128022379</t>
+  </si>
+  <si>
+    <t>862680958749696</t>
+  </si>
+  <si>
+    <t>879033580447767</t>
+  </si>
+  <si>
+    <t>831449391872853</t>
+  </si>
+  <si>
+    <t>811997050484754</t>
+  </si>
+  <si>
+    <t>874083870942738</t>
+  </si>
+  <si>
+    <t>863065252044600</t>
+  </si>
+  <si>
+    <t>848002120217580</t>
+  </si>
+  <si>
+    <t>877192400631885</t>
+  </si>
+  <si>
+    <t>921045112913280</t>
+  </si>
+  <si>
+    <t>830359291981863</t>
+  </si>
+  <si>
+    <t>933330521684739</t>
+  </si>
+  <si>
+    <t>846489837035475</t>
+  </si>
+  <si>
+    <t>934099364941188</t>
+  </si>
+  <si>
+    <t>849693783381747</t>
+  </si>
+  <si>
+    <t>894746348876490</t>
+  </si>
+  <si>
+    <t>833372568347202</t>
+  </si>
+  <si>
+    <t>882784750072650</t>
+  </si>
+  <si>
+    <t>877717217246070</t>
+  </si>
+  <si>
+    <t>924073005943824</t>
+  </si>
+  <si>
+    <t>867955531555572</t>
+  </si>
+  <si>
+    <t>914280046923120</t>
+  </si>
+  <si>
+    <t>932314381786353</t>
+  </si>
+  <si>
+    <t>859159562435169</t>
+  </si>
+  <si>
+    <t>884657923218666</t>
+  </si>
+  <si>
+    <t>811897900494669</t>
+  </si>
+  <si>
+    <t>922314856119639</t>
+  </si>
+  <si>
+    <t>831046048579854</t>
+  </si>
+  <si>
+    <t>903583087992816</t>
+  </si>
+  <si>
+    <t>851542196530239</t>
+  </si>
+  <si>
+    <t>931143745236750</t>
+  </si>
+  <si>
+    <t>918445623173229</t>
+  </si>
+  <si>
+    <t>936829641334827</t>
+  </si>
+  <si>
+    <t>931209788563479</t>
+  </si>
+  <si>
+    <t>828217445529381</t>
+  </si>
+  <si>
+    <t>866458258371966</t>
+  </si>
+  <si>
+    <t>861270472224078</t>
+  </si>
+  <si>
+    <t>929640732053718</t>
+  </si>
+  <si>
+    <t>893408179010307</t>
   </si>
   <si>
     <t>936338714717253</t>
   </si>
   <si>
-    <t>897453348605790</t>
-  </si>
-  <si>
-    <t>935061558178302</t>
-  </si>
-  <si>
-    <t>934991131518678</t>
-  </si>
-  <si>
-    <t>934847748199683</t>
-  </si>
-  <si>
-    <t>865322978485494</t>
-  </si>
-  <si>
-    <t>942091490808642</t>
-  </si>
-  <si>
-    <t>936338164717308</t>
-  </si>
-  <si>
-    <t>941902074160917</t>
-  </si>
-  <si>
-    <t>934317134919411</t>
-  </si>
-  <si>
-    <t>935657591452032</t>
-  </si>
-  <si>
-    <t>920171443000647</t>
-  </si>
-  <si>
-    <t>936654001352391</t>
-  </si>
-  <si>
-    <t>869954128022379</t>
-  </si>
-  <si>
-    <t>936829641334827</t>
-  </si>
-  <si>
-    <t>941271837557274</t>
-  </si>
-  <si>
-    <t>942567137427744</t>
-  </si>
-  <si>
-    <t>935011148183343</t>
-  </si>
-  <si>
-    <t>940359197648538</t>
+    <t>891132649237860</t>
+  </si>
+  <si>
+    <t>918893306461794</t>
+  </si>
+  <si>
+    <t>883267776691014</t>
+  </si>
+  <si>
+    <t>836791458005313</t>
+  </si>
+  <si>
+    <t>933750331642758</t>
+  </si>
+  <si>
+    <t>827448465606279</t>
+  </si>
+  <si>
+    <t>Ân Thiên</t>
+  </si>
+  <si>
+    <t>Nguyễn Lâm Huy</t>
+  </si>
+  <si>
+    <t>Hayliyal Olasird</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tú</t>
+  </si>
+  <si>
+    <t>Thịnh Đinh</t>
+  </si>
+  <si>
+    <t>Nam Văn</t>
+  </si>
+  <si>
+    <t>Ngờ Uyên Nguyên</t>
+  </si>
+  <si>
+    <t>Phí Văn Mạnh</t>
+  </si>
+  <si>
+    <t>Châu Tấn Phước</t>
+  </si>
+  <si>
+    <t>Trần Tú</t>
+  </si>
+  <si>
+    <t>Tiến Trần</t>
+  </si>
+  <si>
+    <t>Hung Nguyen</t>
+  </si>
+  <si>
+    <t>Hùng Lê</t>
+  </si>
+  <si>
+    <t>Phạm Trần Cường</t>
+  </si>
+  <si>
+    <t>Trung Sơn Mai</t>
+  </si>
+  <si>
+    <t>Lê Thành Tân</t>
+  </si>
+  <si>
+    <t>Vuong Viet</t>
+  </si>
+  <si>
+    <t>Thư Phạm</t>
+  </si>
+  <si>
+    <t>Thiện Thanh</t>
+  </si>
+  <si>
+    <t>Trường Vũ</t>
+  </si>
+  <si>
+    <t>Tien Le</t>
+  </si>
+  <si>
+    <t>Huy Quang</t>
+  </si>
+  <si>
+    <t>Gia Bảo</t>
+  </si>
+  <si>
+    <t>Comeback Huy</t>
+  </si>
+  <si>
+    <t>Khoa Đăng</t>
+  </si>
+  <si>
+    <t>Minh Huy</t>
+  </si>
+  <si>
+    <t>Avery Birdland</t>
+  </si>
+  <si>
+    <t>Bảo Phúc</t>
+  </si>
+  <si>
+    <t>Hoang Kt</t>
+  </si>
+  <si>
+    <t>Dng Nghi</t>
+  </si>
+  <si>
+    <t>Phan Huỳnh Tuấn Archer</t>
+  </si>
+  <si>
+    <t>Gia Tuan Trinh</t>
+  </si>
+  <si>
+    <t>Bảo Long</t>
+  </si>
+  <si>
+    <t>Sang Sang</t>
+  </si>
+  <si>
+    <t>Hoàng Bảo</t>
+  </si>
+  <si>
+    <t>Ericnatalianoirmuntiz Rogervansclous Tobias</t>
+  </si>
+  <si>
+    <t>Bảoo Hiếuu</t>
+  </si>
+  <si>
+    <t>Con Này Đẹp Trai</t>
+  </si>
+  <si>
+    <t>Minh Lee</t>
+  </si>
+  <si>
+    <t>Sơn Lê</t>
+  </si>
+  <si>
+    <t>Kamo Aki</t>
+  </si>
+  <si>
+    <t>Duc Anh</t>
+  </si>
+  <si>
+    <t>Giọt Nước Tràn Ly</t>
+  </si>
+  <si>
+    <t>Vale Rebekka</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Luân</t>
+  </si>
+  <si>
+    <t>Nosramus Nhà Giả Kim</t>
+  </si>
+  <si>
+    <t>Ngọc Thịnh Thái Trukng</t>
+  </si>
+  <si>
+    <t>Anh Bác Sĩ Furry Bị Trầm Kảm</t>
+  </si>
+  <si>
+    <t>Pháp Lê</t>
+  </si>
+  <si>
+    <t>Emu Hosoka</t>
+  </si>
+  <si>
+    <t>Tan Nguyen</t>
+  </si>
+  <si>
+    <t>Tuấn Minh</t>
+  </si>
+  <si>
+    <t>Lộc Thảo Hương</t>
+  </si>
+  <si>
+    <t>Hoàng NAnh</t>
+  </si>
+  <si>
+    <t>Tuan Phong Hoamg</t>
+  </si>
+  <si>
+    <t>Lewdrizz Carroll</t>
+  </si>
+  <si>
+    <t>Phúc Nguyễn</t>
+  </si>
+  <si>
+    <t>Mlèm</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Gia Bảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật</t>
+  </si>
+  <si>
+    <t>Khanh Sus</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Thành</t>
+  </si>
+  <si>
+    <t>Huỳnh Thương</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Tri</t>
+  </si>
+  <si>
+    <t>Chill Chill Chút Đi</t>
+  </si>
+  <si>
+    <t>Butter Pom Dogo</t>
+  </si>
+  <si>
+    <t>Ngọc Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Phúc Hoàng</t>
   </si>
   <si>
     <t>Lê Doãn Tiến</t>
   </si>
   <si>
-    <t>Ân Thiên</t>
-  </si>
-  <si>
-    <t>Châu Tấn Phước</t>
+    <t>Nguyễn Bảo</t>
+  </si>
+  <si>
+    <t>Trần Nghĩa</t>
+  </si>
+  <si>
+    <t>Long Lee</t>
+  </si>
+  <si>
+    <t>Ngô Vinh</t>
+  </si>
+  <si>
+    <t>Thái Thịnh</t>
+  </si>
+  <si>
+    <t>Minzmind Minzmind</t>
+  </si>
+  <si>
+    <t>Lý Việt</t>
+  </si>
+  <si>
+    <t>Hoàng Minh</t>
+  </si>
+  <si>
+    <t>葉奈櫻</t>
+  </si>
+  <si>
+    <t>Khang Huỳnh Phạm</t>
+  </si>
+  <si>
+    <t>Du Sốh</t>
+  </si>
+  <si>
+    <t>Lê Đức Kiên</t>
+  </si>
+  <si>
+    <t>Dau Lap</t>
+  </si>
+  <si>
+    <t>Ôi Lmủảk Quá</t>
+  </si>
+  <si>
+    <t>Phương Cánh Cụt</t>
+  </si>
+  <si>
+    <t>Khuê Nguyễn</t>
+  </si>
+  <si>
+    <t>Phúc Lê Thiên</t>
+  </si>
+  <si>
+    <t>Quỳnh Nam</t>
+  </si>
+  <si>
+    <t>Đặng Gia Bảo</t>
+  </si>
+  <si>
+    <t>Trần Hiếu</t>
+  </si>
+  <si>
+    <t>Bùi Duy Hòa</t>
+  </si>
+  <si>
+    <t>Chồng Jamil</t>
+  </si>
+  <si>
+    <t>Hanguro Takami</t>
+  </si>
+  <si>
+    <t>Matt Gergous</t>
+  </si>
+  <si>
+    <t>Nguyễn Châu</t>
+  </si>
+  <si>
+    <t>Kiên Trung</t>
+  </si>
+  <si>
+    <t>Gia Huy Phạm</t>
+  </si>
+  <si>
+    <t>Ngọc Minh</t>
+  </si>
+  <si>
+    <t>Việt Duy</t>
+  </si>
+  <si>
+    <t>Truong Pham</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Thành</t>
+  </si>
+  <si>
+    <t>Ne Kitto</t>
+  </si>
+  <si>
+    <t>Cá Cơm</t>
+  </si>
+  <si>
+    <t>Lok Loc</t>
+  </si>
+  <si>
+    <t>Anonymous participant 539</t>
+  </si>
+  <si>
+    <t>Anh Bui</t>
+  </si>
+  <si>
+    <t>An Duong</t>
+  </si>
+  <si>
+    <t>Duy Kiên</t>
+  </si>
+  <si>
+    <t>Óc Sa Kít</t>
+  </si>
+  <si>
+    <t>Chính Xác</t>
+  </si>
+  <si>
+    <t>En On</t>
+  </si>
+  <si>
+    <t>Trí Minh</t>
+  </si>
+  <si>
+    <t>Kiên Phùng</t>
+  </si>
+  <si>
+    <t>Vũ Đình Minh</t>
+  </si>
+  <si>
+    <t>Hà Trần</t>
+  </si>
+  <si>
+    <t>Tú Mai</t>
+  </si>
+  <si>
+    <t>Real Mer</t>
   </si>
   <si>
     <t>ĐẹpTrai BịHói</t>
   </si>
   <si>
-    <t>Sơn Lê</t>
-  </si>
-  <si>
-    <t>Hoang Hieu Nguyen</t>
-  </si>
-  <si>
-    <t>Vuong Viet</t>
-  </si>
-  <si>
-    <t>Ngọc Thịnh Thái Trukng</t>
-  </si>
-  <si>
-    <t>Thư Phạm</t>
-  </si>
-  <si>
-    <t>Chill Chill Chút Đi</t>
-  </si>
-  <si>
-    <t>Giọt Nước Tràn Ly</t>
-  </si>
-  <si>
-    <t>Tuấn Minh</t>
-  </si>
-  <si>
-    <t>Phúc Nguyễn</t>
-  </si>
-  <si>
-    <t>Kamo Aki</t>
-  </si>
-  <si>
-    <t>Thịnh Đinh</t>
-  </si>
-  <si>
-    <t>Gia Tuan Trinh</t>
-  </si>
-  <si>
-    <t>Lộc Thảo Hương</t>
-  </si>
-  <si>
-    <t>Chồng Jamil</t>
-  </si>
-  <si>
-    <t>Ngờ Uyên Nguyên</t>
-  </si>
-  <si>
-    <t>Ericnatalianoirmuntiz Rogervansclous Tobias</t>
-  </si>
-  <si>
-    <t>Nguyễn Châu</t>
-  </si>
-  <si>
     <t>Hoangg Anh</t>
   </si>
   <si>
-    <t>Comeback Huy</t>
+    <t>Hữu Thànhh</t>
   </si>
   <si>
     <t>Nguyễn Công Trường</t>
   </si>
   <si>
-    <t>Tiến Trần</t>
+    <t>Đặng Linh</t>
+  </si>
+  <si>
+    <t>Bin Nguyễn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đạt</t>
+  </si>
+  <si>
+    <t>Thái Sơn</t>
+  </si>
+  <si>
+    <t>Zap Moew</t>
+  </si>
+  <si>
+    <t>Sầu Đời</t>
+  </si>
+  <si>
+    <t>Bat Fd</t>
+  </si>
+  <si>
+    <t>Feldredix Ignatius</t>
+  </si>
+  <si>
+    <t>Hoang Tuan Anh</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Phụng</t>
+  </si>
+  <si>
+    <t>Đức Nguyễn Tài</t>
+  </si>
+  <si>
+    <t>Fam Lan Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Kiên</t>
+  </si>
+  <si>
+    <t>Anne Nhiên</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải Phương</t>
+  </si>
+  <si>
+    <t>Sơn Ngọc</t>
+  </si>
+  <si>
+    <t>Khoa Hoàng</t>
+  </si>
+  <si>
+    <t>Hữu Đạo</t>
+  </si>
+  <si>
+    <t>Huỳnh Phát</t>
+  </si>
+  <si>
+    <t>Joe Kessler</t>
+  </si>
+  <si>
+    <t>GhostFang BC</t>
+  </si>
+  <si>
+    <t>Đinh Hậu</t>
+  </si>
+  <si>
+    <t>Chắc là của marina</t>
+  </si>
+  <si>
+    <t>Còn nhé fr</t>
+  </si>
+  <si>
+    <t>Lâu lâu mới thấy con người làm gì căng (')&gt;</t>
+  </si>
+  <si>
+    <t>Mang con bé đến chỗ thần mặt trăng đổi nó là các hảo hán dù nát đến đâu cũng dc phục hồi nguyên trạng</t>
+  </si>
+  <si>
+    <t>Có quận giấy trống thì nên chọn cái gì vậy ô tôi mới kiếm dc 1 cái :))</t>
+  </si>
+  <si>
+    <t>30k fr</t>
+  </si>
+  <si>
+    <t>Chơi trên Joiplay có cheat được book of enlightenment với mấy item khác không ông</t>
+  </si>
+  <si>
+    <t>Holy sh1t CatG mentioned?!</t>
+  </si>
+  <si>
+    <t>Có phần 2 việt hoá rồi nhưng hơi dở</t>
+  </si>
+  <si>
+    <t>Bếp kiểu chắc hẳn là tuyệt vọng lắm mới tìm đến t</t>
+  </si>
+  <si>
+    <t>Ê con bé nó dthw</t>
+  </si>
+  <si>
+    <t>Miasa Blue sin sergal spear ko lấy qua empty scroll được</t>
+  </si>
+  <si>
+    <t>hummm.....2 tay 2 chân</t>
+  </si>
+  <si>
+    <t>Cho moon lady nhé b</t>
+  </si>
+  <si>
+    <t>Có ai bt dowload joi play ở đâu k mn ?</t>
+  </si>
+  <si>
+    <t>Mod hay fan art z</t>
+  </si>
+  <si>
+    <t>Rising contributor</t>
+  </si>
+  <si>
+    <t>Có hàng của otp, tôi xin bú</t>
+  </si>
+  <si>
+    <t>Nào ko trêu bạn</t>
+  </si>
+  <si>
+    <t>Hợp nhất 2 đứa lại hoặc là gặp Lady Of The Moon may ra chữa. Còn không thì chơi lại file save khác bác =))))))))</t>
+  </si>
+  <si>
+    <t>bạn vào dis the red team ủng hộ 30 cá để có bản VH sớm cả pc &amp; và file apk chơi trên đt nhé , kh bị lỗi gì luôn</t>
+  </si>
+  <si>
+    <t>Hôm nào ra thêm nha bác</t>
+  </si>
+  <si>
+    <t>Sau khi biết nó là nam thì t cũng thấy thế</t>
+  </si>
+  <si>
+    <t>Butter Pom Dogo toàn mari</t>
+  </si>
+  <si>
+    <t>mod skin tên gì v bác</t>
+  </si>
+  <si>
+    <t>Nhiễm pollen cũng dùng worm juice , dùng xong auto dính độc nên nhớ thủ sẵn white vial nhá :))</t>
+  </si>
+  <si>
+    <t>X + youtube</t>
+  </si>
+  <si>
+    <t>Mấy con khác the mod dù có vật phẩm bảo vệ tay nhưng vẫn thua</t>
+  </si>
+  <si>
+    <t>Nguyễn Kiên 16p nhanh phết</t>
+  </si>
+  <si>
+    <t>Nhom nhom, cam on vi bua ăn</t>
+  </si>
+  <si>
+    <t>Pay đầu :Đ</t>
+  </si>
+  <si>
+    <t>Nghĩ là không, kiểu nếu dùng nvc với một trong các nhân vật khác thiếu đi một thằng phụ trợ cầm vũ khí mạnh với lượt đánh nữa. Con đầu còn dùng đồ được, con sau thì không mặc đồ đc</t>
+  </si>
+  <si>
+    <t>Uh Pheromones ko xài đc lên ổng đâu</t>
+  </si>
+  <si>
+    <t>chỉ cách đánh con quạ đi</t>
+  </si>
+  <si>
+    <t>Bạn mua ko mình pass qua, 500k ko thương lượng. Give item j cũng có có tool</t>
+  </si>
+  <si>
+    <t>All hail kaiser</t>
+  </si>
+  <si>
+    <t>để ý mind đừng để thấp quá, cầm cây đó nó cho game over ngay</t>
+  </si>
+  <si>
+    <t>tôi chơi pc nên k biết nghe bảo tải joi gì đấy...</t>
+  </si>
+  <si>
+    <t>Thật ra nếu cố thì vẫn cứu được hết, cơ mà hơi căng.</t>
+  </si>
+  <si>
+    <t>Ko mua đc thuốc thì ta về đầu cửa dungeon cheat 99 lọ :)))</t>
+  </si>
+  <si>
+    <t>Cái này là con đường xưa</t>
+  </si>
+  <si>
+    <t>Hard mode không mời ai được vào cả, chỉ có spam Ghoul, Skeleton, Blood Golem thôi</t>
+  </si>
+  <si>
+    <t>Không, chỉ 1 cho tất cả hoặc tất cả cho 1 thôi</t>
+  </si>
+  <si>
+    <t>Tôi có lên wiki về nhân vật levi thì chứng bệnh nghiện có thể chữa khỏi niếu có daan thật không nhỉ?</t>
+  </si>
+  <si>
+    <t>ờm, nhỏ đó counter phép, chơi độc với vật lý thì đc</t>
+  </si>
+  <si>
+    <t>Tuyệt vọng luôn</t>
+  </si>
+  <si>
+    <t>Chịt</t>
+  </si>
+  <si>
+    <t>Bên t ko có tính năng đó</t>
+  </si>
+  <si>
+    <t>30k nha</t>
+  </si>
+  <si>
+    <t>Bn đến chỗ của bọn ng thỏ thờ Slyvian á, chỗ đó nếu tham gia cùng họ sẽ đc free và heal đầy thanh HP vào lần đầu tiên nhma lần sau phải tung xu nếu ko sẽ check</t>
+  </si>
+  <si>
+    <t>Hãy coi em loli đó như 1 thứ an ủi tinh thần trong hầm ngục fear and hunger(nhớ cứu bố nó không là nó thành batman đấy)</t>
+  </si>
+  <si>
+    <t>Mod gì</t>
+  </si>
+  <si>
+    <t>Nào ko trêu con tui</t>
+  </si>
+  <si>
+    <t>Top contributor</t>
+  </si>
+  <si>
+    <t>Dep gai idol long em</t>
+  </si>
+  <si>
+    <t>Skeleton: ko sợ, ko đói, ko bị trầm cảm, có thể hồi sinh mọi lúc mọi nơi.</t>
+  </si>
+  <si>
+    <t>O lord give me item mà ông muốn</t>
+  </si>
+  <si>
+    <t>Ko có dash hay escape plan thì chả dám động, đặc biệt nó hay nằm ở prison mới cay chứ :))</t>
+  </si>
+  <si>
+    <t>Nhà sản xuất game confirm Marina là trans r mà ông</t>
+  </si>
+  <si>
+    <t>XINHDEPTUYETVOI lun bạn ơiiii</t>
+  </si>
+  <si>
+    <t>Thì đã có đâu bác, có bản gg dịch thôi</t>
+  </si>
+  <si>
+    <t>H hiến tế mẹ con bé cho grogôrt đi lấy necromancy chứ h nó còn tác dụng gì nữa đâu</t>
+  </si>
+  <si>
+    <t>Bị ăn hành do bị gì, cần file save không t gửi test thử</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Farm quái tới mức mà tụi nó vào truyền thuyết là hiểu</t>
+  </si>
+  <si>
+    <t>k liên quan lắm nhưng cho hỏi ngu. sao ko đc công khai name artist vậy</t>
+  </si>
+  <si>
+    <t>"Đít nhỏ to nhờ" - henrik</t>
+  </si>
+  <si>
+    <t>Fah 1 thì trên gg có đấy search là ra còn fah 2 thì ô lên cánh cụt team ấy</t>
+  </si>
+  <si>
+    <t>Cưa god tier, red virtual cũng ngon nhưng blind run end-B sài thử mà làm quả bóp vcl</t>
+  </si>
+  <si>
+    <t>Which is an imposter? Le'gard or griffin</t>
+  </si>
+  <si>
+    <t>Funger 1 có con nào tên mod à</t>
+  </si>
+  <si>
+    <t>Dễ mà chỉ có nếu đen ko tìm dc thuốc nổ thôi ko 5p cũng dc</t>
+  </si>
+  <si>
+    <t>ăn được thịt thối</t>
+  </si>
+  <si>
+    <t>Snvv nha bro</t>
+  </si>
+  <si>
+    <t>Sang phần 2 thì kiêm luôn họa sĩ</t>
+  </si>
+  <si>
+    <t>Nói siêu tóm tắt thì Abella trở thành chị hằng lên cung trăng bằng cách chế tên lửa</t>
+  </si>
+  <si>
+    <t>Skip ở đây là skip mọi hành động hay là chỉ skip hành động của mục tiêu ném vào?</t>
+  </si>
+  <si>
+    <t>Marco ? Tại ổng khổ xưa giờ rồi nên được tha thì hên</t>
+  </si>
+  <si>
+    <t>Đọc combat manuel mà ông nhặt được cùng cái map thì biết:)</t>
+  </si>
+  <si>
+    <t>Học trong bàn hexen skill tree của Grogoroth hoặc empty scroll</t>
+  </si>
+  <si>
+    <t>How, cần giải thích chi tiết</t>
+  </si>
+  <si>
+    <t>Miasma đôi khi hơi bóp đấy</t>
+  </si>
+  <si>
+    <t>Game có mod cơ mà chx bt tải dư lào . Còn về game thì tui nghĩ bro nên chuẩn bị một số đồ tăng mind đi vì chơi game này thì ko chỉ mind nhân vật mà mind của ôg ở đời thật cx tụt ghê lắm</t>
+  </si>
+  <si>
+    <t>"Nếu chơi Termina mà chưa đánh Heartless one lần nào tức là chả biết cái mie gì về Termina cả"</t>
+  </si>
+  <si>
+    <t>Má sao nhìn giống j97 thế</t>
+  </si>
+  <si>
+    <t>Có thì húp thôi chứ lỗi j</t>
+  </si>
+  <si>
+    <t>Tính năng đấy</t>
+  </si>
+  <si>
+    <t>theo như t tìm hiểu thì nhân vật nào cũng có 1 bức ảnh ending của mình mà nhỉ? hay t hiểu sai ý bồ vậy?</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Tôi cần 1 người phiên dịch ngôn ngữ</t>
+  </si>
+  <si>
+    <t>theo tôi thì chắc chắn là thật vì bức ảnh đó là tương lai</t>
+  </si>
+  <si>
+    <t>Thank ad</t>
+  </si>
+  <si>
+    <t>Nhớ có ai đó từng build Levi không nghiện lúc đầu game và đổi sang chơi hệ phép như hắc cẩu và triệu hồn cũng mạnh lắm</t>
+  </si>
+  <si>
+    <t>lý tưởng của thg legarde hay mà, ending yellow king đấy thế giới phát triển chứ có phải là suy đồi mà ác quỷ</t>
+  </si>
+  <si>
+    <t>Đỉnh a</t>
+  </si>
+  <si>
+    <t>tranh chép thì nên ghi nguồn bạn ạ</t>
+  </si>
+  <si>
+    <t>Bug tí</t>
+  </si>
+  <si>
+    <t>trans girl = best girl</t>
+  </si>
+  <si>
+    <t>Nhớ trc có mod drace tai mèo nhưng tôi mò ko ra</t>
+  </si>
+  <si>
+    <t>Chỉ cần 1 tk nợ nần và 1 thanh kiếm jack đc canh bởi con ma</t>
+  </si>
+  <si>
+    <t>T chúc sn Olivia muộn quá mà tiện chúc sn luôn Reila</t>
+  </si>
+  <si>
+    <t>Tới bệnh viện nhờ bác sĩ bó bột, uống thêm vài viên giảm đau nhé bác</t>
+  </si>
+  <si>
+    <t>nếu mình tìm cách thì vẫn chữa được, còn Marina thì xưa giờ người ta sống sao thì gọi vậy</t>
+  </si>
+  <si>
+    <t>Chơi pc thì bỏ chuột ra . Muốn đánh vào bộ phận khác thì dùng wasd ấy</t>
+  </si>
+  <si>
+    <t>Trong game chỉ cho free 2 cái th còn lại là loot</t>
+  </si>
+  <si>
+    <t>Ermmm.... where's sauce</t>
+  </si>
+  <si>
+    <t>Bản việt hoá bác mua bên the red team à bác</t>
+  </si>
+  <si>
+    <t>Được nhé bạn</t>
+  </si>
+  <si>
+    <t>Ko đứt chim sẻ giống guard là ok rồi</t>
+  </si>
+  <si>
+    <t>O' cũng mạnh nhưng đánh boss thì không bằng Olivia</t>
+  </si>
+  <si>
+    <t>ở p2 Marcoh là ngon bổ rẻ nhất bác ạ. Nếu ko skip story thì chọn+25 body, bob and weave tăng tỉ lệ né đòn. Ổng thú vị ở chỗ ko cầm vũ khí thì gây sát thương 2 lần liên tiếp</t>
+  </si>
+  <si>
+    <t>The machine god không biết phải thần thăng thiên không nhỉ</t>
+  </si>
+  <si>
+    <t>Chơi lại bạn ơi</t>
+  </si>
+  <si>
+    <t>Congratulation man ^^</t>
+  </si>
+  <si>
+    <t>Lão nas, lão ủng hộ mình lên làm god luôn mà</t>
   </si>
   <si>
     <t>chắc lia vào femboy, nhưng mà đuma t vẫn không tin được marina là nam :)))))</t>
   </si>
   <si>
+    <t>Fun fact: trong cut content,Cahara là người bắt giữ Le'garde</t>
+  </si>
+  <si>
+    <t>Phase để spam empty scroll:))</t>
+  </si>
+  <si>
+    <t>Levi à :Đ</t>
+  </si>
+  <si>
+    <t>Học từ skill nhánh của gro goroth á</t>
+  </si>
+  <si>
+    <t>Hồi t newbie thấy cái j đi trên map là đánh cái đó, sau khi gặp con này mà t tỉnh ngộ luôn</t>
+  </si>
+  <si>
+    <t>Thế còn ending S của cahara nó k có thật à</t>
+  </si>
+  <si>
+    <t>bị cụt ở phần 1 có thể hồi sinh lại tay ko</t>
+  </si>
+  <si>
+    <t>T 13 phút</t>
+  </si>
+  <si>
+    <t>Blue sin ko có nha</t>
+  </si>
+  <si>
+    <t>Nexus mod nha</t>
+  </si>
+  <si>
+    <t>Rất chi là vô đạo bất lương</t>
+  </si>
+  <si>
+    <t>Rồi tốt bụng dữ chưa?</t>
+  </si>
+  <si>
+    <t>Khởi đầu với Marcoh, Daan, Abella cho newbie là tôi thấy ổn nhất nhé</t>
+  </si>
+  <si>
+    <t>Mn cho hỏi mấy cái vh này tưởng là kêu gọi đủ tiền thì làm chứ bán thế này 1 ng mua thì public hết à</t>
+  </si>
+  <si>
+    <t>New gods còn ko chết được nói chi đến old gods</t>
+  </si>
+  <si>
+    <t>Lên wiki đi</t>
+  </si>
+  <si>
+    <t>T nghĩ kết A sẽ canon, người hi sinh vì logic gồm Olivia (thoại đặc biệt của logic), Marcoh (luôn hỗ trợ cho bả)</t>
+  </si>
+  <si>
+    <t>*Ragnvaldr đã gửi lời mời kết bạn</t>
+  </si>
+  <si>
+    <t>Tôi đã cân nhắc việc cosplay Marina nhưng tôi không biết mua trang phục của cô ấy ở đâu.(*'へ'*)</t>
+  </si>
+  <si>
+    <t>Nghe nói phần hai, sắp đc update, hy vọng có thêm thông tin về Cahara</t>
+  </si>
+  <si>
+    <t>giải nén đi</t>
+  </si>
+  <si>
+    <t>Kiếm giường ngủ, và tung đồng xu</t>
+  </si>
+  <si>
+    <t>Thậm chí nó còn là fact</t>
+  </si>
+  <si>
+    <t>Nigga khoẻ mà phép khoẻ</t>
+  </si>
+  <si>
+    <t>Tôi thấy chỉ cần tăng điểm gắn kết với thần là học được chứ chả cần tìm sách:v</t>
+  </si>
+  <si>
+    <t>Hell yeah</t>
+  </si>
+  <si>
+    <t>Thấy lạ vch tôi ném mấy lần r mà có thấy địch bị choáng đâu</t>
+  </si>
+  <si>
+    <t>Nếu đang là đêm ngày 3 thì cả đám đi Party hết rồi</t>
+  </si>
+  <si>
+    <t>P2 game nó xoá empty scroll</t>
+  </si>
+  <si>
+    <t>Chỉnh lên 99 books of enlightenment =&gt; free saves</t>
+  </si>
+  <si>
+    <t>Ko bt có ai cos chị heartless ko</t>
+  </si>
+  <si>
+    <t>Cái claymore phải 2 tay mới sài đc phải ko mn lâu ko chơi ko nhớ</t>
+  </si>
+  <si>
+    <t>Đại loại là mình trở thành ( hoặc không ) thần lưu huỳnh hoặc do rher tèo nên sg mới trồi dậy</t>
+  </si>
+  <si>
+    <t>Nếu Olivia có cần tây cô đặc với arm guar thì the mod tới công chuyện</t>
+  </si>
+  <si>
+    <t>Bạn ơi , sao có vietsub z á . Mình xin link vs</t>
+  </si>
+  <si>
+    <t>việt hoá ở đâu vậy bro?</t>
+  </si>
+  <si>
+    <t>Chơi giả lập bằng joyplay cũng đc bạn ạ</t>
+  </si>
+  <si>
+    <t>WHITE ANGEL</t>
+  </si>
+  <si>
+    <t>Đ hiểu sao tôi lại cứ chơi con cơ bắp kia =)))</t>
+  </si>
+  <si>
+    <t>Who is fail god</t>
+  </si>
+  <si>
+    <t>Để tăng đc thì bác nhấn vào nút rec up nha</t>
+  </si>
+  <si>
+    <t>ĐỈNH QUÁ</t>
+  </si>
+  <si>
+    <t>Joi play thì vẫn dùng file game bth thôi chứ làm gì có link riêng ông</t>
+  </si>
+  <si>
+    <t>À t tìm thấy nì trên X nè</t>
+  </si>
+  <si>
+    <t>Hôm bữa loot đc cả arm guarl mà sai lag vậy bác</t>
+  </si>
+  <si>
+    <t>Trong that phong cach</t>
+  </si>
+  <si>
+    <t>Why is D’arce</t>
+  </si>
+  <si>
+    <t>Tôi tưởng ổng chỉ làm thế khi hóa moonscorche</t>
+  </si>
+  <si>
+    <t>nhỏ này nó phiền ác</t>
+  </si>
+  <si>
+    <t>Chúc mừng bạn đã làm đc S ending dễ nhất</t>
+  </si>
+  <si>
+    <t>Chứng tỏ mob yếu quá cầm dao ko cũng chém đc</t>
+  </si>
+  <si>
+    <t>Và là cái dễ nhất trong 4 ending S</t>
+  </si>
+  <si>
+    <t>Thật ra nên xem ai tệ nhất, thực tế gần như mọi thí sinh đều có cái kết khá êm đẹp ở ending B nên hơi khó nói,còn tệ nhất thì dễ nói hơn nhiều. Aka mắt chột daan và Levi</t>
+  </si>
+  <si>
+    <t>mấy con quái thường còn nguy hiểm hơn mấy con boss</t>
+  </si>
+  <si>
+    <t>Có thể học skill từ nhánh của thần đó</t>
+  </si>
+  <si>
+    <t>Dạng 1 : Marriage là khi fusion với 2 ng sẽ thành</t>
+  </si>
+  <si>
+    <t>Dễ cho người mới, khó cho người chơi lâu năm.</t>
+  </si>
+  <si>
+    <t>Đi nhặt lá xanh đi ông</t>
+  </si>
+  <si>
+    <t>Xin link mod ae ơi</t>
+  </si>
+  <si>
+    <t>Phần 1 thì tế the girl cho lady moon, còn p2 thì vẽ dấu sylvian ở ritual circle</t>
+  </si>
+  <si>
+    <t>Hay, cahara ending thật sự thảm z</t>
+  </si>
+  <si>
+    <t>Bạn tìm tải trên web theredteam nhé họ có bản việt hoá của p1 còn p2 thì b donate cho bên cánh cụt team (fb) để nhận bản việt hoá của p2 termina</t>
+  </si>
+  <si>
+    <t>Kinh nghiệm sau khi chơi và làm videos về F&amp;H thì cách tốt nhất để chơi con game này là bác cứ phải chơi đi chơi lại nó nhiều lần :))</t>
+  </si>
+  <si>
+    <t>Ông vẽ đẹp đấy giờ nó là của tôi</t>
+  </si>
+  <si>
+    <t>mẻ này nếu muốn mở ending của mẻ thì cuối gêm hãng mở lồng cho mẻ á :"&gt; đánh yếu mà tốn slot tốn tài nguyên @@ ak v nếu định mở thì nhớ kiếm con búp bê v dao con cho mẻ để đánh boss cuối dễ thở hơn :))</t>
+  </si>
+  <si>
+    <t>có cưa là chúng sinh bình đẳng :)))</t>
+  </si>
+  <si>
+    <t>Sài Cloth fragment</t>
+  </si>
+  <si>
+    <t>Ơ có việt hóa à</t>
+  </si>
+  <si>
+    <t>Cách kiếm nhiều green herb là</t>
+  </si>
+  <si>
+    <t>Đúng quá k cãi được, hồi trc cố chấp bảo chỉ muốn chơi phép thuật, giờ mới biết thấy pháp sư vật lí bá</t>
+  </si>
+  <si>
+    <t>nên chọn daan hoặc marcoj</t>
+  </si>
+  <si>
+    <t>Ko có Android hả ad</t>
+  </si>
+  <si>
+    <t>Tôi nhớ là tôi bị như này là vì cahara của tôi bị cụt tay nhưng tôi vẫn trang bị khiên cho ảnh ko tháo ra sau đó save game thì bị lỗi như này luôn</t>
+  </si>
+  <si>
+    <t>Dùng cái cây màu xanh lá</t>
+  </si>
+  <si>
+    <t>Chơi chế độ khó nhất</t>
+  </si>
+  <si>
+    <t>Cốt truyện của thần fear and hunger 2 nó thế nào ấy m.n</t>
+  </si>
+  <si>
+    <t>Marina sáng chiều ngày 1 thì ở tàu</t>
+  </si>
+  <si>
+    <t>gà</t>
+  </si>
+  <si>
+    <t>Tui sài empty scoll xin white angel mà nó không được cộng lượt nhỉ ad hay do boss chưa chít :)) (tui trang bị r)</t>
+  </si>
+  <si>
+    <t>Ko nên phí vl</t>
+  </si>
+  <si>
+    <t>Máy cưa mạnh nhất game</t>
+  </si>
+  <si>
+    <t>bác phải kiếm được cube of the dephs mới vào được hay sao á</t>
+  </si>
+  <si>
+    <t>Tài khoản yt của pocket cat à</t>
+  </si>
+  <si>
+    <t>Đồng hương</t>
+  </si>
+  <si>
+    <t>Levi ngày trước phải sống trong trại trẻ mồ côi của bố Marina, mà cái trại đó ntn thì chơi game xong ông biết r đấy</t>
+  </si>
+  <si>
+    <t>Chịu</t>
+  </si>
+  <si>
+    <t>Có 9 cuộn trống chả nhẽ lại ko lấy sách save game:))</t>
+  </si>
+  <si>
+    <t>cưa =))</t>
+  </si>
+  <si>
+    <t>Chạy th, hoặc dùng pheromons + blood goblem</t>
+  </si>
+  <si>
+    <t>Cảm ơn bác :00</t>
+  </si>
+  <si>
+    <t>vứt luôn:) Không cứu nổi đâu:)</t>
+  </si>
+  <si>
+    <t>Chú ơi, đừng ngầu nữa...</t>
+  </si>
+  <si>
+    <t>Không bạn. Bạn sẽ bị vậy trong suốt Game á. Muốn nối lại thì Reset chơi lại thôi.</t>
+  </si>
+  <si>
+    <t>Dùng green herb là hết</t>
+  </si>
+  <si>
+    <t>Đầu game có kiếm kiến thức mạnh nhất game đó b</t>
+  </si>
+  <si>
+    <t>S ending của Outlander thì bạn phải tiêu diệt toàn bộ boss, lấy souls xong đi dìa</t>
+  </si>
+  <si>
+    <t>Funger 1 hay 2 vậy ông, hai game có cơ chế save khá khác nhau ( một số )</t>
+  </si>
+  <si>
+    <t>Tanaka với Marcoh</t>
+  </si>
+  <si>
+    <t>Nuh uh phải có iron mask của Isayah ms ko bị mù</t>
+  </si>
+  <si>
+    <t>Bên thành phố cổ bán 20 đồng 1 cái mà, gom đi ông</t>
+  </si>
+  <si>
+    <t>Dù là game thể loại gì thì fandom cũng có thể biến nó thành cái rạp xiếc được, nể</t>
+  </si>
+  <si>
+    <t>Đcm cứu đc hết thì dễ con giết hết lấy ending b hoặc c căng vc</t>
+  </si>
+  <si>
+    <t>phase này sẽ xuất hiện nếu bác trụ đến cuối lượt thứ 13 á, mà chỉ có ở mode thường với maso thôi</t>
+  </si>
+  <si>
+    <t>Xe lăn vê lóc</t>
+  </si>
+  <si>
+    <t>Người chơi hệ heroin sẽ có độ ảo diệu ngang với độ phê đớ của họ</t>
+  </si>
+  <si>
+    <t>ờmm tuy k hiểu lắm nma đáng ra đứa cần phải bình tĩnh lúc gặp le’gard phải là ragnvaldr chứ nhỉ</t>
+  </si>
+  <si>
+    <t>Mấy dòng game RPG này ko dùng chuột đc đâu. Chịu khó mò phím lên xuống ấy.</t>
+  </si>
+  <si>
+    <t>Mo rong lo dit</t>
+  </si>
+  <si>
+    <t>Xe lăn được đánh giá cao, nghiện vẫn là đáy của xh</t>
+  </si>
+  <si>
+    <t>còn tùy bồ chơi nhân vật nào nè</t>
+  </si>
+  <si>
+    <t>Anh griffith</t>
+  </si>
+  <si>
+    <t>Có 1 phòng ngủ an toàn dc 1 lần ở đầu game luôn như gần chỗ con eti mặc giáp vàng</t>
+  </si>
+  <si>
+    <t>Lỗi được của ló đấy, tôi cũng có một file nhặt vô hạn đồng xu</t>
+  </si>
+  <si>
+    <t>sau day1 truoc day 3</t>
+  </si>
+  <si>
+    <t>Mình có 2 giả thuyết</t>
+  </si>
+  <si>
+    <t>Fail god là gì vậy bác</t>
+  </si>
+  <si>
+    <t>Ib bản joyplay mượt lắm</t>
+  </si>
+  <si>
+    <t>Đúng amá bạn nhưng nếu Olivia mất một tay thì sẽ bị giảm tốc độ đi (khi chúng ta chơi Olivia)</t>
+  </si>
+  <si>
+    <t>Làm ở hard mode vs phải gặp legrade</t>
+  </si>
+  <si>
+    <t>Art xinh quá có ai bt cre tác giả k ạ</t>
+  </si>
+  <si>
+    <t>Cho hỏi ngu ending nào là đẹp nhất v ( ý là đỡ bad nhất :)) )</t>
+  </si>
+  <si>
+    <t>Làm Ending C ll</t>
+  </si>
+  <si>
+    <t>Gặp elite run là lẹ nhất gòi</t>
+  </si>
+  <si>
     <t>Chx bao h thấy cặp này real như v :))</t>
   </si>
   <si>
-    <t>Chắc là của marina</t>
+    <t>Xin link bản việt trên joiplay với bác</t>
+  </si>
+  <si>
+    <t>chưa có bút lông</t>
+  </si>
+  <si>
+    <t>cạch chỗ marcoh có cái xe lăn đấy, vác về cho olivia là dc</t>
+  </si>
+  <si>
+    <t>Mỗi màn run có 10% tỉ lệ xuất hiện moonless guard ở đây và nó giết hết mọi ng trong làng</t>
+  </si>
+  <si>
+    <t>Ủa có cả tiếng việt hả</t>
+  </si>
+  <si>
+    <t>1 phang chúng sinh bình đẳng =))))</t>
+  </si>
+  <si>
+    <t>Mới chơi thì bị ngợp bởi game cũng thường thôi bạn</t>
+  </si>
+  <si>
+    <t>Wig chải gọn lại là oke r ds bác</t>
+  </si>
+  <si>
+    <t>Sylvian để phục hồi tay chân và Rher để triệu hồi Heartless one</t>
+  </si>
+  <si>
+    <t>Cha Henryk còn khen bà í mông to nữa chứ dcm :)))))</t>
+  </si>
+  <si>
+    <t>Lên gg gõ marina ,tui toàn thấy fan art của marina và levi ,ko biết 2 khứa đó có qh gì ko mà fandom toàn ship,nếu thế thì gay go thật</t>
+  </si>
+  <si>
+    <t>Rất cần cầu nguyện luôn, lần đầu chơi ko biết nên rất dễ toan. Nói chung, hãy cầu nguyện</t>
+  </si>
+  <si>
+    <t>Sao gắn cho thằng nào giết cả team z? Tui gắn cho Le'garde có bị sao đâu</t>
+  </si>
+  <si>
+    <t>Olivia xinh thực sự, nói chuyện còn hay lạc quan với mơ mộng nữa chứ :)))) đoạn nhìn con song trùng chạy hài vl, ếu bh quên đc :))))</t>
+  </si>
+  <si>
+    <t>Thosandaubuoi</t>
+  </si>
+  <si>
+    <t>Chơi team 2 người nó đỡ food với đồ hồi phục hơn đấy :)))))</t>
+  </si>
+  <si>
+    <t>vẽ sai là hetcuu r bác ạ</t>
+  </si>
+  <si>
+    <t>con thứ 1 là kết hợp lần đầu, con thứ 2 là con 1+ 1 đứa khác. T nghĩ nên hợp tạo ra con 1 khi xảy ra trường hợp tàn tật cụt chân tay, còn con thứ 2 ko đeo trang bị được nên đừng</t>
+  </si>
+  <si>
+    <t>dù abella, karin hay marcoh có thoát khỏi đó nhma họ vẫn rất lo sợ vì những gì họ biết, đỡ hơn levi thôi chứ abella thì tìm cách lên mặt trăng còn marcoh ám ảnh với việc phải đấm được thần</t>
+  </si>
+  <si>
+    <t>con girl á</t>
+  </si>
+  <si>
+    <t>Ko seo ko seo, Chi Vi có thể tha cho còn Chi Dân thì cho vào nhà lao</t>
+  </si>
+  <si>
+    <t>Chưa đủ nhanh rùi</t>
+  </si>
+  <si>
+    <t>Tìm cái quill đi</t>
+  </si>
+  <si>
+    <t>Ko sao đâu. Bạn còn sẽ gặp con crow 2 đầu</t>
+  </si>
+  <si>
+    <t>Moonless &gt; the girl no diff</t>
+  </si>
+  <si>
+    <t>Em thấy Olivia ở trung hạng s với ông o'saa mới phải bình thường nhờ bả mà việc đánh boss ko quá khó khăn</t>
+  </si>
+  <si>
+    <t>'I've covered wars, you know?''</t>
+  </si>
+  <si>
+    <t>Anh ơi đẹp trai quá</t>
+  </si>
+  <si>
+    <t>Claymore và eastern sword</t>
+  </si>
+  <si>
+    <t>Game này chơi hên xui lắm bác ơi. Phải kiên nhẫn</t>
+  </si>
+  <si>
+    <t>50k cơ à =}} chát quá đợi có tiền trải nghiệm sau</t>
+  </si>
+  <si>
+    <t>Wtf</t>
+  </si>
+  <si>
+    <t>Trụ đến cuối lượt thứ 13 là nó chuyển dạng</t>
+  </si>
+  <si>
+    <t>Tìm yellow mage xong chặt 2 tay rồi talk cho đến khi có bùa, qua bọn người da xanh lấy cục cube, gặp ổng talk đến chết =))</t>
+  </si>
+  <si>
+    <t>Triều đại của các tân thần</t>
+  </si>
+  <si>
+    <t>Bán cho bác</t>
+  </si>
+  <si>
+    <t>Ngonn v xin file save</t>
+  </si>
+  <si>
+    <t>Có lỗ hổng là không phải người nữa thì ending lấy được kho báu xong ra khỏi hầm ngục thì quái vật sống kiểu gì.</t>
+  </si>
+  <si>
+    <t>Lên xem các youtuber live ấy bác, xem học kiến thức căn bản thôi</t>
+  </si>
+  <si>
+    <t>Chỉ nè dụi mắt xong chơi lại là đc</t>
+  </si>
+  <si>
+    <t>Cos xinh quá bác</t>
+  </si>
+  <si>
+    <t>Nếu bác muốn đánh nhau trực diện thì t khuyến khích nên pick Olivia và team phải có Abella. Tập trung đầu độc và làm choáng mỗi con cầm cưa (và t thành công thực sự, mỗi tội Abella nhà t pay 1 tay do t quên equip lại cờ lê=))))))</t>
+  </si>
+  <si>
+    <t>Fear and hunger wiki lên đó tìm</t>
+  </si>
+  <si>
+    <t>Và skin biber</t>
+  </si>
+  <si>
+    <t>Happy birthday bro</t>
+  </si>
+  <si>
+    <t>Có chalk</t>
+  </si>
+  <si>
+    <t>Toàn Hà Phúc mắ đầu gêm chấp nhận giữ shift để hốt xem có j mlem khum mà bấm tails xong bị đập vào mặt là 2 cái đầu</t>
+  </si>
+  <si>
+    <t>Phải cứu nó trước 30 phút đầu sau thì nó bị tử hình lúc đó mình đi tiếp thôi</t>
+  </si>
+  <si>
+    <t>100k cho hai phần việt hoá</t>
+  </si>
+  <si>
+    <t>Dr cần lông, mà đổi lấy bloodscrifice cũng ngon, không thì claymore</t>
+  </si>
+  <si>
+    <t>Để tránh vụ one shot là nằm đó bác, nó sẽ cho bác còn 1 máu để sống tiếp</t>
+  </si>
+  <si>
+    <t>Mode khó nhất và bắt buộc gặp lê gayz</t>
+  </si>
+  <si>
+    <t>dùng grass shard là dễ nhất không thì dùng black smog</t>
+  </si>
+  <si>
+    <t>hong nha hình như đừng để ổng gặp Kaiser á</t>
+  </si>
+  <si>
+    <t>Xe lăn thần tốc nghe buồn cười nên thả</t>
+  </si>
+  <si>
+    <t>Nên.</t>
+  </si>
+  <si>
+    <t>đúng là tình huống thực tế</t>
+  </si>
+  <si>
+    <t>Cái empty scroll này dùng để làm gì v</t>
+  </si>
+  <si>
+    <t>Bán bé đi, còn soi thì hiến tế, 30p đầu game lấy con La arce lam</t>
+  </si>
+  <si>
+    <t>Vô phòng noramus là chắc chắn sẽ có một cái. Loot mấy tủ sách, rương, hoặc may mắn hơn là loot chay là có, muốn tăng phần trăm nhận đc thì tung hai đồng xu cùng lúc</t>
+  </si>
+  <si>
+    <t>Nếu như có arm guar và vật phẩm bảo vệ tay thì mod yếu nhưng khi có một mình thằng cầm cưa vì 2 thằnh đệ dame cũng không phải bé</t>
+  </si>
+  <si>
+    <t>Ủa chứ k phải là ổng đang đi trông the machine god à</t>
+  </si>
+  <si>
+    <t>Tải bản Android ở đâu z bro có việt hóa ko</t>
+  </si>
+  <si>
+    <t>Huhu cute quá tr</t>
+  </si>
+  <si>
+    <t>Vua vàng nhưng bị lùa như sinh viên gặp đa cấp</t>
+  </si>
+  <si>
+    <t>Theredteam nhé</t>
+  </si>
+  <si>
+    <t>Bảo Long không, đi ra vòng phép kết hôn đi là hết</t>
   </si>
   <si>
     <t>Vào bà hai</t>
   </si>
   <si>
-    <t>Tanaka với Marcoh</t>
-  </si>
-  <si>
-    <t>Lên wiki đi</t>
-  </si>
-  <si>
-    <t>Mồm Mai toàn xương dịch của tôi</t>
-  </si>
-  <si>
-    <t>All hail kaiser</t>
-  </si>
-  <si>
-    <t>Farm quái tới mức mà tụi nó vào truyền thuyết là hiểu</t>
-  </si>
-  <si>
-    <t>Nào ko trêu con tui</t>
-  </si>
-  <si>
-    <t>Chỉ cần 1 tk nợ nần và 1 thanh kiếm jack đc canh bởi con ma</t>
-  </si>
-  <si>
-    <t>T chúc sn Olivia muộn quá mà tiện chúc sn luôn Reila</t>
-  </si>
-  <si>
-    <t>Bên t ko có tính năng đó</t>
-  </si>
-  <si>
-    <t>Nhà sản xuất game confirm Marina là trans r mà ông</t>
-  </si>
-  <si>
-    <t>*Ragnvaldr đã gửi lời mời kết bạn</t>
-  </si>
-  <si>
-    <t>Có thì húp thôi chứ lỗi j</t>
-  </si>
-  <si>
-    <t>Top contributor</t>
+    <t>Cóa nhma là discord nhe</t>
+  </si>
+  <si>
+    <t>Lợi: hồi phục hết các chi</t>
+  </si>
+  <si>
+    <t>Bác học necromacy hồi sinh anh em ghoul đi cùng là đc</t>
+  </si>
+  <si>
+    <t>Ké</t>
+  </si>
+  <si>
+    <t>Moonless với The Girl:)) Hai ẻm cuti vl</t>
+  </si>
+  <si>
+    <t>Lạy slyvian học phép hồi máu</t>
+  </si>
+  <si>
+    <t>Ông chơi cái này lâu lâu có bị trắng màn hình lỗi ko</t>
+  </si>
+  <si>
+    <t>oi tr, bả còn đu đc cáp thang máy thì cầu thang là cái khỉ khô j</t>
+  </si>
+  <si>
+    <t>nếu như bác chiêu mộ Marina và dẫn về tàu rồi thì ẻm biết mất vĩnh viễn ko có cách nào chiêu mộ đc ấy</t>
+  </si>
+  <si>
+    <t>Giết cái linh hồn, hoặc dùng skill dịch chuyển</t>
+  </si>
+  <si>
+    <t>Fah 1 ib</t>
+  </si>
+  <si>
+    <t>là lá bài dung hợp</t>
+  </si>
+  <si>
+    <t>Anh này mạnh ác</t>
+  </si>
+  <si>
+    <t>Những kẻ “nuôi sống” mầm non tương lai</t>
+  </si>
+  <si>
+    <t>Dừng lại thôi không là có caligucon</t>
+  </si>
+  <si>
+    <t>Ôi đạo hữu</t>
+  </si>
+  <si>
+    <t>Tránh là tốt nhất</t>
+  </si>
+  <si>
+    <t>lên youtube có mất video hướng dẫn chi tiết đấy bạn</t>
+  </si>
+  <si>
+    <t>ending s là kiếm hết soul cơ xong thoát dungeo</t>
+  </si>
+  <si>
+    <t>Chuyện thường ngày :))) chơi lại riết cũng chai sạn thôi kkk</t>
+  </si>
+  <si>
+    <t>Mà bạn ơi marian x Levi hay Samaria otp nào mới real ạ</t>
   </si>
   <si>
     <t>Chưa thực hiện nghi thức thăng hoa mà sao thành thần riu</t>
-  </si>
-  <si>
-    <t>Nào ko trêu bạn</t>
-  </si>
-  <si>
-    <t>Xe lăn thần tốc nghe buồn cười nên thả</t>
-  </si>
-  <si>
-    <t>Nhớ có ai đó từng build Levi không nghiện lúc đầu game và đổi sang chơi hệ phép như hắc cẩu và triệu hồn cũng mạnh lắm</t>
-  </si>
-  <si>
-    <t>Để tránh vụ one shot là nằm đó bác, nó sẽ cho bác còn 1 máu để sống tiếp</t>
-  </si>
-  <si>
-    <t>Chú ơi, đừng ngầu nữa...</t>
-  </si>
-  <si>
-    <t>ĐỈNH QUÁ</t>
-  </si>
-  <si>
-    <t>"Nếu chơi Termina mà chưa đánh Heartless one lần nào tức là chả biết cái mie gì về Termina cả"</t>
-  </si>
-  <si>
-    <t>Art xinh quá có ai bt cre tác giả k ạ</t>
-  </si>
-  <si>
-    <t>dù abella, karin hay marcoh có thoát khỏi đó nhma họ vẫn rất lo sợ vì những gì họ biết, đỡ hơn levi thôi chứ abella thì tìm cách lên mặt trăng còn marcoh ám ảnh với việc phải đấm được thần</t>
-  </si>
-  <si>
-    <t>nhỏ này nó phiền ác</t>
-  </si>
-  <si>
-    <t>Bên thành phố cổ bán 20 đồng 1 cái mà, gom đi ông</t>
-  </si>
-  <si>
-    <t>Sang phần 2 thì kiêm luôn họa sĩ</t>
-  </si>
-  <si>
-    <t>Butter Pom Dogo toàn mari</t>
-  </si>
-  <si>
-    <t>Bộ bị Mai cắm sừng hay gì mà trả thù kì vậy</t>
-  </si>
-  <si>
-    <t>Có hàng của otp, tôi xin bú</t>
-  </si>
-  <si>
-    <t>Xe lăn vê lóc</t>
   </si>
 </sst>
 </file>
@@ -623,7 +2441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -656,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -667,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -678,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -689,10 +2507,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -700,10 +2518,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -711,10 +2529,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -722,10 +2540,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -733,10 +2551,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -744,10 +2562,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,10 +2573,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -766,10 +2584,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -777,241 +2595,3707 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C101" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" t="s">
+        <v>270</v>
+      </c>
+      <c r="C118" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" t="s">
+        <v>277</v>
+      </c>
+      <c r="C122" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C123" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>287</v>
+      </c>
+      <c r="C124" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" t="s">
+        <v>288</v>
+      </c>
+      <c r="C125" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" t="s">
+        <v>289</v>
+      </c>
+      <c r="C127" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
+        <v>290</v>
+      </c>
+      <c r="C129" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" t="s">
+        <v>224</v>
+      </c>
+      <c r="C137" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138" t="s">
+        <v>294</v>
+      </c>
+      <c r="C138" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140" t="s">
+        <v>233</v>
+      </c>
+      <c r="C140" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>85</v>
+      </c>
+      <c r="B142" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" t="s">
+        <v>269</v>
+      </c>
+      <c r="C143" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>128</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>240</v>
+      </c>
+      <c r="C152" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>130</v>
+      </c>
+      <c r="B154" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C156" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" t="s">
+        <v>222</v>
+      </c>
+      <c r="C157" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>68</v>
+      </c>
+      <c r="B159" t="s">
+        <v>303</v>
+      </c>
+      <c r="C159" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" t="s">
+        <v>238</v>
+      </c>
+      <c r="C160" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>304</v>
+      </c>
+      <c r="C161" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>127</v>
+      </c>
+      <c r="B162" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" t="s">
+        <v>306</v>
+      </c>
+      <c r="C163" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164" t="s">
+        <v>223</v>
+      </c>
+      <c r="C164" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>134</v>
+      </c>
+      <c r="B166" t="s">
+        <v>245</v>
+      </c>
+      <c r="C166" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167" t="s">
+        <v>238</v>
+      </c>
+      <c r="C167" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>135</v>
+      </c>
+      <c r="B168" t="s">
+        <v>308</v>
+      </c>
+      <c r="C168" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>136</v>
+      </c>
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170" t="s">
+        <v>235</v>
+      </c>
+      <c r="C170" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>138</v>
+      </c>
+      <c r="B171" t="s">
+        <v>238</v>
+      </c>
+      <c r="C171" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>133</v>
+      </c>
+      <c r="B173" t="s">
+        <v>310</v>
+      </c>
+      <c r="C173" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>139</v>
+      </c>
+      <c r="B174" t="s">
+        <v>283</v>
+      </c>
+      <c r="C174" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>58</v>
+      </c>
+      <c r="B175" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>140</v>
+      </c>
+      <c r="B176" t="s">
+        <v>245</v>
+      </c>
+      <c r="C176" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>141</v>
+      </c>
+      <c r="B177" t="s">
+        <v>270</v>
+      </c>
+      <c r="C177" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178" t="s">
+        <v>305</v>
+      </c>
+      <c r="C178" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" t="s">
+        <v>312</v>
+      </c>
+      <c r="C179" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>142</v>
+      </c>
+      <c r="B180" t="s">
+        <v>313</v>
+      </c>
+      <c r="C180" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>143</v>
+      </c>
+      <c r="B181" t="s">
+        <v>231</v>
+      </c>
+      <c r="C181" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>144</v>
+      </c>
+      <c r="B182" t="s">
+        <v>245</v>
+      </c>
+      <c r="C182" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>145</v>
+      </c>
+      <c r="B183" t="s">
+        <v>249</v>
+      </c>
+      <c r="C183" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>146</v>
+      </c>
+      <c r="B184" t="s">
+        <v>314</v>
+      </c>
+      <c r="C184" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>256</v>
+      </c>
+      <c r="C185" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>147</v>
+      </c>
+      <c r="B186" t="s">
+        <v>315</v>
+      </c>
+      <c r="C186" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>112</v>
+      </c>
+      <c r="B187" t="s">
+        <v>246</v>
+      </c>
+      <c r="C187" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" t="s">
+        <v>316</v>
+      </c>
+      <c r="C188" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>148</v>
+      </c>
+      <c r="B189" t="s">
+        <v>317</v>
+      </c>
+      <c r="C189" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>149</v>
+      </c>
+      <c r="B190" t="s">
+        <v>228</v>
+      </c>
+      <c r="C190" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>318</v>
+      </c>
+      <c r="C191" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>139</v>
+      </c>
+      <c r="B192" t="s">
+        <v>242</v>
+      </c>
+      <c r="C192" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>150</v>
+      </c>
+      <c r="B193" t="s">
+        <v>223</v>
+      </c>
+      <c r="C193" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>125</v>
+      </c>
+      <c r="B194" t="s">
+        <v>305</v>
+      </c>
+      <c r="C194" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>151</v>
+      </c>
+      <c r="B195" t="s">
+        <v>319</v>
+      </c>
+      <c r="C195" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>152</v>
+      </c>
+      <c r="B196" t="s">
+        <v>320</v>
+      </c>
+      <c r="C196" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>102</v>
+      </c>
+      <c r="B197" t="s">
+        <v>278</v>
+      </c>
+      <c r="C197" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>89</v>
+      </c>
+      <c r="B198" t="s">
+        <v>321</v>
+      </c>
+      <c r="C198" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>153</v>
+      </c>
+      <c r="B199" t="s">
+        <v>251</v>
+      </c>
+      <c r="C199" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>146</v>
+      </c>
+      <c r="B200" t="s">
+        <v>322</v>
+      </c>
+      <c r="C200" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>154</v>
+      </c>
+      <c r="B201" t="s">
+        <v>272</v>
+      </c>
+      <c r="C201" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>119</v>
+      </c>
+      <c r="B202" t="s">
+        <v>323</v>
+      </c>
+      <c r="C202" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>155</v>
+      </c>
+      <c r="B203" t="s">
+        <v>324</v>
+      </c>
+      <c r="C203" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>87</v>
+      </c>
+      <c r="B204" t="s">
+        <v>325</v>
+      </c>
+      <c r="C204" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>83</v>
+      <c r="B205" t="s">
+        <v>326</v>
+      </c>
+      <c r="C205" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>156</v>
+      </c>
+      <c r="B206" t="s">
+        <v>327</v>
+      </c>
+      <c r="C206" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>72</v>
+      </c>
+      <c r="B207" t="s">
+        <v>328</v>
+      </c>
+      <c r="C207" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>157</v>
+      </c>
+      <c r="B208" t="s">
+        <v>329</v>
+      </c>
+      <c r="C208" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>158</v>
+      </c>
+      <c r="B209" t="s">
+        <v>316</v>
+      </c>
+      <c r="C209" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>159</v>
+      </c>
+      <c r="B210" t="s">
+        <v>224</v>
+      </c>
+      <c r="C210" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>159</v>
+      </c>
+      <c r="B211" t="s">
+        <v>223</v>
+      </c>
+      <c r="C211" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>160</v>
+      </c>
+      <c r="B212" t="s">
+        <v>222</v>
+      </c>
+      <c r="C212" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>161</v>
+      </c>
+      <c r="B213" t="s">
+        <v>288</v>
+      </c>
+      <c r="C213" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>151</v>
+      </c>
+      <c r="B214" t="s">
+        <v>330</v>
+      </c>
+      <c r="C214" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>162</v>
+      </c>
+      <c r="B215" t="s">
+        <v>262</v>
+      </c>
+      <c r="C215" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>109</v>
+      </c>
+      <c r="B216" t="s">
+        <v>331</v>
+      </c>
+      <c r="C216" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>163</v>
+      </c>
+      <c r="B217" t="s">
+        <v>271</v>
+      </c>
+      <c r="C217" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>164</v>
+      </c>
+      <c r="B218" t="s">
+        <v>235</v>
+      </c>
+      <c r="C218" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>147</v>
+      </c>
+      <c r="B219" t="s">
+        <v>332</v>
+      </c>
+      <c r="C219" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>165</v>
+      </c>
+      <c r="B220" t="s">
+        <v>268</v>
+      </c>
+      <c r="C220" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>166</v>
+      </c>
+      <c r="B221" t="s">
+        <v>333</v>
+      </c>
+      <c r="C221" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>167</v>
+      </c>
+      <c r="B222" t="s">
+        <v>317</v>
+      </c>
+      <c r="C222" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>126</v>
+      </c>
+      <c r="B223" t="s">
+        <v>303</v>
+      </c>
+      <c r="C223" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>168</v>
+      </c>
+      <c r="B224" t="s">
+        <v>334</v>
+      </c>
+      <c r="C224" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>169</v>
+      </c>
+      <c r="B225" t="s">
+        <v>245</v>
+      </c>
+      <c r="C225" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>121</v>
+      </c>
+      <c r="B226" t="s">
+        <v>335</v>
+      </c>
+      <c r="C226" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>170</v>
+      </c>
+      <c r="B227" t="s">
+        <v>273</v>
+      </c>
+      <c r="C227" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>43</v>
+      </c>
+      <c r="B228" t="s">
+        <v>232</v>
+      </c>
+      <c r="C228" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>171</v>
+      </c>
+      <c r="B229" t="s">
+        <v>270</v>
+      </c>
+      <c r="C229" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>172</v>
+      </c>
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>94</v>
+      </c>
+      <c r="B231" t="s">
+        <v>235</v>
+      </c>
+      <c r="C231" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>173</v>
+      </c>
+      <c r="B232" t="s">
+        <v>336</v>
+      </c>
+      <c r="C232" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>99</v>
+      </c>
+      <c r="B233" t="s">
+        <v>296</v>
+      </c>
+      <c r="C233" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>103</v>
+      </c>
+      <c r="B234" t="s">
+        <v>255</v>
+      </c>
+      <c r="C234" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>174</v>
+      </c>
+      <c r="B235" t="s">
+        <v>337</v>
+      </c>
+      <c r="C235" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>175</v>
+      </c>
+      <c r="B236" t="s">
+        <v>275</v>
+      </c>
+      <c r="C236" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>176</v>
+      </c>
+      <c r="B237" t="s">
+        <v>338</v>
+      </c>
+      <c r="C237" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>177</v>
+      </c>
+      <c r="B238" t="s">
+        <v>339</v>
+      </c>
+      <c r="C238" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>178</v>
+      </c>
+      <c r="B239" t="s">
+        <v>340</v>
+      </c>
+      <c r="C239" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>179</v>
+      </c>
+      <c r="B240" t="s">
+        <v>341</v>
+      </c>
+      <c r="C240" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>88</v>
+      </c>
+      <c r="B241" t="s">
+        <v>238</v>
+      </c>
+      <c r="C241" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>134</v>
+      </c>
+      <c r="B242" t="s">
+        <v>334</v>
+      </c>
+      <c r="C242" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" t="s">
+        <v>262</v>
+      </c>
+      <c r="C243" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>180</v>
+      </c>
+      <c r="B244" t="s">
+        <v>238</v>
+      </c>
+      <c r="C244" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>181</v>
+      </c>
+      <c r="B245" t="s">
+        <v>267</v>
+      </c>
+      <c r="C245" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>96</v>
+      </c>
+      <c r="B246" t="s">
+        <v>253</v>
+      </c>
+      <c r="C246" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>182</v>
+      </c>
+      <c r="B247" t="s">
+        <v>233</v>
+      </c>
+      <c r="C247" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>107</v>
+      </c>
+      <c r="B248" t="s">
+        <v>242</v>
+      </c>
+      <c r="C248" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>183</v>
+      </c>
+      <c r="B249" t="s">
+        <v>240</v>
+      </c>
+      <c r="C249" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" t="s">
+        <v>302</v>
+      </c>
+      <c r="C250" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>37</v>
+      </c>
+      <c r="B251" t="s">
+        <v>342</v>
+      </c>
+      <c r="C251" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" t="s">
+        <v>218</v>
+      </c>
+      <c r="C252" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>80</v>
+      </c>
+      <c r="B253" t="s">
+        <v>343</v>
+      </c>
+      <c r="C253" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>184</v>
+      </c>
+      <c r="B254" t="s">
+        <v>333</v>
+      </c>
+      <c r="C254" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>185</v>
+      </c>
+      <c r="B255" t="s">
+        <v>278</v>
+      </c>
+      <c r="C255" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>44</v>
+      </c>
+      <c r="B256" t="s">
+        <v>267</v>
+      </c>
+      <c r="C256" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>186</v>
+      </c>
+      <c r="B257" t="s">
+        <v>344</v>
+      </c>
+      <c r="C257" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>76</v>
+      </c>
+      <c r="B258" t="s">
+        <v>250</v>
+      </c>
+      <c r="C258" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>187</v>
+      </c>
+      <c r="B259" t="s">
+        <v>224</v>
+      </c>
+      <c r="C259" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>188</v>
+      </c>
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+      <c r="C260" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>189</v>
+      </c>
+      <c r="B261" t="s">
+        <v>345</v>
+      </c>
+      <c r="C261" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>190</v>
+      </c>
+      <c r="B262" t="s">
+        <v>302</v>
+      </c>
+      <c r="C262" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>191</v>
+      </c>
+      <c r="B263" t="s">
+        <v>234</v>
+      </c>
+      <c r="C263" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>116</v>
+      </c>
+      <c r="B264" t="s">
+        <v>346</v>
+      </c>
+      <c r="C264" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>192</v>
+      </c>
+      <c r="B265" t="s">
+        <v>296</v>
+      </c>
+      <c r="C265" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>66</v>
+      </c>
+      <c r="B266" t="s">
+        <v>246</v>
+      </c>
+      <c r="C266" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>38</v>
+      </c>
+      <c r="B267" t="s">
+        <v>263</v>
+      </c>
+      <c r="C267" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>170</v>
+      </c>
+      <c r="B268" t="s">
+        <v>234</v>
+      </c>
+      <c r="C268" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>34</v>
+      </c>
+      <c r="B269" t="s">
+        <v>234</v>
+      </c>
+      <c r="C269" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>185</v>
+      </c>
+      <c r="B270" t="s">
+        <v>234</v>
+      </c>
+      <c r="C270" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>163</v>
+      </c>
+      <c r="B271" t="s">
+        <v>270</v>
+      </c>
+      <c r="C271" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>35</v>
+      </c>
+      <c r="B272" t="s">
+        <v>262</v>
+      </c>
+      <c r="C272" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>311</v>
+      </c>
+      <c r="C273" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>106</v>
+      </c>
+      <c r="B274" t="s">
+        <v>347</v>
+      </c>
+      <c r="C274" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>193</v>
+      </c>
+      <c r="B275" t="s">
+        <v>235</v>
+      </c>
+      <c r="C275" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>113</v>
+      </c>
+      <c r="B276" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>184</v>
+      </c>
+      <c r="B277" t="s">
+        <v>243</v>
+      </c>
+      <c r="C277" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>162</v>
+      </c>
+      <c r="B278" t="s">
+        <v>333</v>
+      </c>
+      <c r="C278" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" t="s">
+        <v>316</v>
+      </c>
+      <c r="C279" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>104</v>
+      </c>
+      <c r="B280" t="s">
+        <v>238</v>
+      </c>
+      <c r="C280" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>194</v>
+      </c>
+      <c r="B281" t="s">
+        <v>235</v>
+      </c>
+      <c r="C281" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>64</v>
+      </c>
+      <c r="B282" t="s">
+        <v>349</v>
+      </c>
+      <c r="C282" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>166</v>
+      </c>
+      <c r="B283" t="s">
+        <v>350</v>
+      </c>
+      <c r="C283" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>148</v>
+      </c>
+      <c r="B284" t="s">
+        <v>351</v>
+      </c>
+      <c r="C284" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>118</v>
+      </c>
+      <c r="B285" t="s">
+        <v>352</v>
+      </c>
+      <c r="C285" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>195</v>
+      </c>
+      <c r="B286" t="s">
+        <v>328</v>
+      </c>
+      <c r="C286" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>196</v>
+      </c>
+      <c r="B287" t="s">
+        <v>270</v>
+      </c>
+      <c r="C287" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>36</v>
+      </c>
+      <c r="B288" t="s">
+        <v>353</v>
+      </c>
+      <c r="C288" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>197</v>
+      </c>
+      <c r="B289" t="s">
+        <v>222</v>
+      </c>
+      <c r="C289" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>16</v>
+      </c>
+      <c r="B290" t="s">
+        <v>296</v>
+      </c>
+      <c r="C290" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>178</v>
+      </c>
+      <c r="B291" t="s">
+        <v>340</v>
+      </c>
+      <c r="C291" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>198</v>
+      </c>
+      <c r="B292" t="s">
+        <v>246</v>
+      </c>
+      <c r="C292" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>199</v>
+      </c>
+      <c r="B293" t="s">
+        <v>233</v>
+      </c>
+      <c r="C293" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>67</v>
+      </c>
+      <c r="B294" t="s">
+        <v>270</v>
+      </c>
+      <c r="C294" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>200</v>
+      </c>
+      <c r="B295" t="s">
+        <v>251</v>
+      </c>
+      <c r="C295" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>189</v>
+      </c>
+      <c r="B296" t="s">
+        <v>345</v>
+      </c>
+      <c r="C296" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>201</v>
+      </c>
+      <c r="B297" t="s">
+        <v>270</v>
+      </c>
+      <c r="C297" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>61</v>
+      </c>
+      <c r="B298" t="s">
+        <v>262</v>
+      </c>
+      <c r="C298" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>202</v>
+      </c>
+      <c r="B299" t="s">
+        <v>354</v>
+      </c>
+      <c r="C299" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>73</v>
+      </c>
+      <c r="B300" t="s">
+        <v>297</v>
+      </c>
+      <c r="C300" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>202</v>
+      </c>
+      <c r="B301" t="s">
+        <v>354</v>
+      </c>
+      <c r="C301" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>188</v>
+      </c>
+      <c r="B302" t="s">
+        <v>318</v>
+      </c>
+      <c r="C302" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>175</v>
+      </c>
+      <c r="B303" t="s">
+        <v>292</v>
+      </c>
+      <c r="C303" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>203</v>
+      </c>
+      <c r="B304" t="s">
+        <v>232</v>
+      </c>
+      <c r="C304" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>114</v>
+      </c>
+      <c r="B305" t="s">
+        <v>262</v>
+      </c>
+      <c r="C305" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>204</v>
+      </c>
+      <c r="B306" t="s">
+        <v>270</v>
+      </c>
+      <c r="C306" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>154</v>
+      </c>
+      <c r="B307" t="s">
+        <v>245</v>
+      </c>
+      <c r="C307" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>205</v>
+      </c>
+      <c r="B308" t="s">
+        <v>278</v>
+      </c>
+      <c r="C308" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>179</v>
+      </c>
+      <c r="B309" t="s">
+        <v>261</v>
+      </c>
+      <c r="C309" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>206</v>
+      </c>
+      <c r="B310" t="s">
+        <v>233</v>
+      </c>
+      <c r="C310" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>172</v>
+      </c>
+      <c r="B311" t="s">
+        <v>249</v>
+      </c>
+      <c r="C311" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>55</v>
+      </c>
+      <c r="B312" t="s">
+        <v>331</v>
+      </c>
+      <c r="C312" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>173</v>
+      </c>
+      <c r="B313" t="s">
+        <v>296</v>
+      </c>
+      <c r="C313" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>198</v>
+      </c>
+      <c r="B314" t="s">
+        <v>240</v>
+      </c>
+      <c r="C314" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>131</v>
+      </c>
+      <c r="B315" t="s">
+        <v>355</v>
+      </c>
+      <c r="C315" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>129</v>
+      </c>
+      <c r="B316" t="s">
+        <v>240</v>
+      </c>
+      <c r="C316" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>39</v>
+      </c>
+      <c r="B317" t="s">
+        <v>262</v>
+      </c>
+      <c r="C317" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>100</v>
+      </c>
+      <c r="B318" t="s">
+        <v>356</v>
+      </c>
+      <c r="C318" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>141</v>
+      </c>
+      <c r="B319" t="s">
+        <v>238</v>
+      </c>
+      <c r="C319" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>207</v>
+      </c>
+      <c r="B320" t="s">
+        <v>290</v>
+      </c>
+      <c r="C320" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>208</v>
+      </c>
+      <c r="B321" t="s">
+        <v>357</v>
+      </c>
+      <c r="C321" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>209</v>
+      </c>
+      <c r="B322" t="s">
+        <v>358</v>
+      </c>
+      <c r="C322" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>91</v>
+      </c>
+      <c r="B323" t="s">
+        <v>359</v>
+      </c>
+      <c r="C323" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>210</v>
+      </c>
+      <c r="B324" t="s">
+        <v>262</v>
+      </c>
+      <c r="C324" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>160</v>
+      </c>
+      <c r="B325" t="s">
+        <v>223</v>
+      </c>
+      <c r="C325" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>211</v>
+      </c>
+      <c r="B326" t="s">
+        <v>226</v>
+      </c>
+      <c r="C326" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>212</v>
+      </c>
+      <c r="B327" t="s">
+        <v>267</v>
+      </c>
+      <c r="C327" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>144</v>
+      </c>
+      <c r="B328" t="s">
+        <v>249</v>
+      </c>
+      <c r="C328" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>47</v>
+      </c>
+      <c r="B329" t="s">
+        <v>270</v>
+      </c>
+      <c r="C329" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>65</v>
+      </c>
+      <c r="B330" t="s">
+        <v>285</v>
+      </c>
+      <c r="C330" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>108</v>
+      </c>
+      <c r="B331" t="s">
+        <v>255</v>
+      </c>
+      <c r="C331" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>54</v>
+      </c>
+      <c r="B332" t="s">
+        <v>222</v>
+      </c>
+      <c r="C332" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>156</v>
+      </c>
+      <c r="B333" t="s">
+        <v>292</v>
+      </c>
+      <c r="C333" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>213</v>
+      </c>
+      <c r="B334" t="s">
+        <v>252</v>
+      </c>
+      <c r="C334" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>155</v>
+      </c>
+      <c r="B335" t="s">
+        <v>270</v>
+      </c>
+      <c r="C335" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>214</v>
+      </c>
+      <c r="B336" t="s">
+        <v>262</v>
+      </c>
+      <c r="C336" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>71</v>
+      </c>
+      <c r="B337" t="s">
+        <v>262</v>
+      </c>
+      <c r="C337" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>51</v>
+      </c>
+      <c r="B338" t="s">
+        <v>275</v>
+      </c>
+      <c r="C338" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>215</v>
+      </c>
+      <c r="B339" t="s">
+        <v>222</v>
+      </c>
+      <c r="C339" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>158</v>
+      </c>
+      <c r="B340" t="s">
+        <v>218</v>
+      </c>
+      <c r="C340" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>70</v>
+      </c>
+      <c r="B341" t="s">
+        <v>224</v>
+      </c>
+      <c r="C341" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>216</v>
+      </c>
+      <c r="B342" t="s">
+        <v>290</v>
+      </c>
+      <c r="C342" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>205</v>
+      </c>
+      <c r="B343" t="s">
+        <v>257</v>
+      </c>
+      <c r="C343" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>217</v>
+      </c>
+      <c r="B344" t="s">
+        <v>263</v>
+      </c>
+      <c r="C344" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>183</v>
+      </c>
+      <c r="B345" t="s">
+        <v>278</v>
+      </c>
+      <c r="C345" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>167</v>
+      </c>
+      <c r="B346" t="s">
+        <v>278</v>
+      </c>
+      <c r="C346" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>50</v>
+      </c>
+      <c r="B347" t="s">
+        <v>358</v>
+      </c>
+      <c r="C347" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>157</v>
+      </c>
+      <c r="B348" t="s">
+        <v>243</v>
+      </c>
+      <c r="C348">
+        <f>)) xuống tới dưới đây mà team mỗi 2 ng thì bác cũng lì đấy</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>123</v>
+      </c>
+      <c r="B349" t="s">
+        <v>238</v>
+      </c>
+      <c r="C349" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>69</v>
+      </c>
+      <c r="B350" t="s">
+        <v>222</v>
+      </c>
+      <c r="C350" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
